--- a/lib/APGCMS/APGCMS/lib/lib_urine_20160406.xlsx
+++ b/lib/APGCMS/APGCMS/lib/lib_urine_20160406.xlsx
@@ -492,9 +492,6 @@
     <t>HMDB_ISTD1</t>
   </si>
   <si>
-    <t>Succinic acid (ISTD)</t>
-  </si>
-  <si>
     <t>41 42 43 44 45 46 47 48 49 50 51 52 53 54 55 56 57 58 59 60 61 62 63 64 65 66 67 67 69 70 71 72 73 74 75 76 77 78 79 80 81 82 83 84 85 86 87 88 89 90 91 92 93 97 98 99 100 101 102 103 104 105 106 107 108 111 112 113 114 115 116 117 118 119 120 121 122 123 127 128 129 130 131 132 133 134 135 136 137 138 139 143 144 145 147 148 149 150 151 152 153 154 156 157 158 159 160 161 162 163 164 165 166 167 168 169 173 174 175 176 177 178 179 180 181 187 188 189 190 191 192 193 194 195 196 203 204 205 206 207 208 209 210 217 218 219 220 221 222 223 224 225 226 233 234 235 236 237 247 248 250 251 252 253 254 255 256 265 266 267 268 269 270 281 325 339 340 341 413 414 415</t>
   </si>
   <si>
@@ -1762,6 +1759,9 @@
   </si>
   <si>
     <t>HMDB00156</t>
+  </si>
+  <si>
+    <t>Succinate-D4 (ISTD)</t>
   </si>
 </sst>
 </file>
@@ -2338,13 +2338,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2510,13 +2511,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C5" t="s">
+        <v>573</v>
+      </c>
+      <c r="D5" t="s">
         <v>574</v>
-      </c>
-      <c r="D5" t="s">
-        <v>575</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -2531,16 +2532,16 @@
         <v>177</v>
       </c>
       <c r="J5" t="s">
+        <v>575</v>
+      </c>
+      <c r="K5" t="s">
         <v>576</v>
-      </c>
-      <c r="K5" t="s">
-        <v>577</v>
       </c>
       <c r="L5" t="s">
         <v>23</v>
       </c>
       <c r="M5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1">
@@ -2625,7 +2626,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C8" t="s">
         <v>40</v>
@@ -2663,7 +2664,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
@@ -2684,10 +2685,10 @@
         <v>233</v>
       </c>
       <c r="J9" t="s">
+        <v>567</v>
+      </c>
+      <c r="K9" t="s">
         <v>568</v>
-      </c>
-      <c r="K9" t="s">
-        <v>569</v>
       </c>
       <c r="L9" t="s">
         <v>23</v>
@@ -3645,10 +3646,10 @@
         <v>156</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>580</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>580</v>
       </c>
       <c r="E35">
         <v>16.8</v>
@@ -3666,10 +3667,10 @@
         <v>4</v>
       </c>
       <c r="J35" t="s">
+        <v>157</v>
+      </c>
+      <c r="K35" t="s">
         <v>158</v>
-      </c>
-      <c r="K35" t="s">
-        <v>159</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
@@ -3680,13 +3681,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" t="s">
         <v>160</v>
       </c>
-      <c r="C36" t="s">
-        <v>161</v>
-      </c>
       <c r="D36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E36">
         <v>16.600000000000001</v>
@@ -3704,10 +3705,10 @@
         <v>5</v>
       </c>
       <c r="J36" t="s">
+        <v>161</v>
+      </c>
+      <c r="K36" t="s">
         <v>162</v>
-      </c>
-      <c r="K36" t="s">
-        <v>163</v>
       </c>
       <c r="L36" t="s">
         <v>17</v>
@@ -3718,13 +3719,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" t="s">
         <v>164</v>
       </c>
-      <c r="C37" t="s">
-        <v>165</v>
-      </c>
       <c r="D37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E37">
         <v>16.920000000000002</v>
@@ -3742,13 +3743,13 @@
         <v>65</v>
       </c>
       <c r="J37" t="s">
+        <v>165</v>
+      </c>
+      <c r="K37" t="s">
         <v>166</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>167</v>
-      </c>
-      <c r="L37" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -3756,13 +3757,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" t="s">
         <v>169</v>
       </c>
-      <c r="C38" t="s">
-        <v>170</v>
-      </c>
       <c r="D38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E38">
         <v>17.27</v>
@@ -3777,10 +3778,10 @@
         <v>189</v>
       </c>
       <c r="J38" t="s">
+        <v>170</v>
+      </c>
+      <c r="K38" t="s">
         <v>171</v>
-      </c>
-      <c r="K38" t="s">
-        <v>172</v>
       </c>
       <c r="L38" t="s">
         <v>23</v>
@@ -3794,13 +3795,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" t="s">
         <v>173</v>
       </c>
-      <c r="C39" t="s">
-        <v>174</v>
-      </c>
       <c r="D39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E39">
         <v>17.329999999999998</v>
@@ -3815,10 +3816,10 @@
         <v>255</v>
       </c>
       <c r="J39" t="s">
+        <v>174</v>
+      </c>
+      <c r="K39" t="s">
         <v>175</v>
-      </c>
-      <c r="K39" t="s">
-        <v>176</v>
       </c>
       <c r="L39" t="s">
         <v>23</v>
@@ -3832,13 +3833,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" t="s">
         <v>177</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>178</v>
-      </c>
-      <c r="D40" t="s">
-        <v>179</v>
       </c>
       <c r="E40">
         <v>17.407</v>
@@ -3853,10 +3854,10 @@
         <v>135</v>
       </c>
       <c r="J40" t="s">
+        <v>179</v>
+      </c>
+      <c r="K40" t="s">
         <v>180</v>
-      </c>
-      <c r="K40" t="s">
-        <v>181</v>
       </c>
       <c r="L40" t="s">
         <v>23</v>
@@ -3870,13 +3871,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" t="s">
         <v>182</v>
       </c>
-      <c r="C41" t="s">
-        <v>183</v>
-      </c>
       <c r="D41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E41">
         <v>17.28</v>
@@ -3894,10 +3895,10 @@
         <v>14</v>
       </c>
       <c r="J41" t="s">
+        <v>183</v>
+      </c>
+      <c r="K41" t="s">
         <v>184</v>
-      </c>
-      <c r="K41" t="s">
-        <v>185</v>
       </c>
       <c r="L41" t="s">
         <v>72</v>
@@ -3908,13 +3909,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" t="s">
         <v>186</v>
       </c>
-      <c r="C42" t="s">
-        <v>187</v>
-      </c>
       <c r="D42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E42">
         <v>17.53</v>
@@ -3932,10 +3933,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
+        <v>187</v>
+      </c>
+      <c r="K42" t="s">
         <v>188</v>
-      </c>
-      <c r="K42" t="s">
-        <v>189</v>
       </c>
       <c r="L42" t="s">
         <v>29</v>
@@ -3946,13 +3947,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43" t="s">
         <v>190</v>
       </c>
-      <c r="C43" t="s">
-        <v>191</v>
-      </c>
       <c r="D43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E43">
         <v>17.73</v>
@@ -3967,10 +3968,10 @@
         <v>171</v>
       </c>
       <c r="J43" t="s">
+        <v>191</v>
+      </c>
+      <c r="K43" t="s">
         <v>192</v>
-      </c>
-      <c r="K43" t="s">
-        <v>193</v>
       </c>
       <c r="L43" t="s">
         <v>23</v>
@@ -3984,13 +3985,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" t="s">
         <v>194</v>
       </c>
-      <c r="C44" t="s">
-        <v>195</v>
-      </c>
       <c r="D44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E44">
         <v>17.78</v>
@@ -4005,10 +4006,10 @@
         <v>159</v>
       </c>
       <c r="J44" t="s">
+        <v>195</v>
+      </c>
+      <c r="K44" t="s">
         <v>196</v>
-      </c>
-      <c r="K44" t="s">
-        <v>197</v>
       </c>
       <c r="L44" t="s">
         <v>23</v>
@@ -4022,13 +4023,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C45" t="s">
         <v>198</v>
       </c>
-      <c r="C45" t="s">
-        <v>199</v>
-      </c>
       <c r="D45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E45">
         <v>17.850999999999999</v>
@@ -4043,16 +4044,16 @@
         <v>292</v>
       </c>
       <c r="J45" t="s">
+        <v>569</v>
+      </c>
+      <c r="K45" t="s">
         <v>570</v>
-      </c>
-      <c r="K45" t="s">
-        <v>571</v>
       </c>
       <c r="L45" t="s">
         <v>23</v>
       </c>
       <c r="M45" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -4060,13 +4061,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" t="s">
         <v>198</v>
       </c>
-      <c r="C46" t="s">
-        <v>199</v>
-      </c>
       <c r="D46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E46">
         <v>17.760000000000002</v>
@@ -4081,16 +4082,16 @@
         <v>292</v>
       </c>
       <c r="J46" t="s">
+        <v>199</v>
+      </c>
+      <c r="K46" t="s">
         <v>200</v>
-      </c>
-      <c r="K46" t="s">
-        <v>201</v>
       </c>
       <c r="L46" t="s">
         <v>118</v>
       </c>
       <c r="M46" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -4098,13 +4099,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>202</v>
+      </c>
+      <c r="C47" t="s">
         <v>203</v>
       </c>
-      <c r="C47" t="s">
-        <v>204</v>
-      </c>
       <c r="D47" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E47">
         <v>17.88</v>
@@ -4119,13 +4120,13 @@
         <v>115</v>
       </c>
       <c r="I47" t="s">
+        <v>204</v>
+      </c>
+      <c r="J47" t="s">
         <v>205</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>206</v>
-      </c>
-      <c r="K47" t="s">
-        <v>207</v>
       </c>
       <c r="L47" t="s">
         <v>23</v>
@@ -4139,13 +4140,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C48" t="s">
+        <v>207</v>
+      </c>
+      <c r="D48" t="s">
         <v>208</v>
-      </c>
-      <c r="D48" t="s">
-        <v>209</v>
       </c>
       <c r="E48">
         <v>17.89</v>
@@ -4160,16 +4161,16 @@
         <v>158</v>
       </c>
       <c r="J48" t="s">
+        <v>205</v>
+      </c>
+      <c r="K48" t="s">
         <v>206</v>
-      </c>
-      <c r="K48" t="s">
-        <v>207</v>
       </c>
       <c r="L48" t="s">
         <v>23</v>
       </c>
       <c r="M48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -4177,13 +4178,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>210</v>
+      </c>
+      <c r="C49" t="s">
         <v>211</v>
       </c>
-      <c r="C49" t="s">
-        <v>212</v>
-      </c>
       <c r="D49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E49">
         <v>18.690000000000001</v>
@@ -4201,10 +4202,10 @@
         <v>58</v>
       </c>
       <c r="J49" t="s">
+        <v>212</v>
+      </c>
+      <c r="K49" t="s">
         <v>213</v>
-      </c>
-      <c r="K49" t="s">
-        <v>214</v>
       </c>
       <c r="L49" t="s">
         <v>64</v>
@@ -4215,13 +4216,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>214</v>
+      </c>
+      <c r="C50" t="s">
         <v>215</v>
       </c>
-      <c r="C50" t="s">
-        <v>216</v>
-      </c>
       <c r="D50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E50">
         <v>18.82</v>
@@ -4236,13 +4237,13 @@
         <v>222</v>
       </c>
       <c r="J50" t="s">
+        <v>216</v>
+      </c>
+      <c r="K50" t="s">
         <v>217</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>218</v>
-      </c>
-      <c r="L50" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -4250,13 +4251,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>219</v>
+      </c>
+      <c r="C51" t="s">
         <v>220</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>221</v>
-      </c>
-      <c r="D51" t="s">
-        <v>222</v>
       </c>
       <c r="E51">
         <v>19.11</v>
@@ -4271,16 +4272,16 @@
         <v>321</v>
       </c>
       <c r="J51" t="s">
+        <v>222</v>
+      </c>
+      <c r="K51" t="s">
         <v>223</v>
-      </c>
-      <c r="K51" t="s">
-        <v>224</v>
       </c>
       <c r="L51" t="s">
         <v>23</v>
       </c>
       <c r="M51" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -4288,13 +4289,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>225</v>
+      </c>
+      <c r="C52" t="s">
         <v>226</v>
       </c>
-      <c r="C52" t="s">
-        <v>227</v>
-      </c>
       <c r="D52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E52">
         <v>19.260000000000002</v>
@@ -4309,10 +4310,10 @@
         <v>172</v>
       </c>
       <c r="J52" t="s">
+        <v>227</v>
+      </c>
+      <c r="K52" t="s">
         <v>228</v>
-      </c>
-      <c r="K52" t="s">
-        <v>229</v>
       </c>
       <c r="L52" t="s">
         <v>23</v>
@@ -4326,13 +4327,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>229</v>
+      </c>
+      <c r="C53" t="s">
         <v>230</v>
       </c>
-      <c r="C53" t="s">
-        <v>231</v>
-      </c>
       <c r="D53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E53">
         <v>19.510000000000002</v>
@@ -4347,10 +4348,10 @@
         <v>186</v>
       </c>
       <c r="J53" t="s">
+        <v>231</v>
+      </c>
+      <c r="K53" t="s">
         <v>232</v>
-      </c>
-      <c r="K53" t="s">
-        <v>233</v>
       </c>
       <c r="L53" t="s">
         <v>23</v>
@@ -4364,13 +4365,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>233</v>
+      </c>
+      <c r="C54" t="s">
         <v>234</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>235</v>
-      </c>
-      <c r="D54" t="s">
-        <v>236</v>
       </c>
       <c r="E54">
         <v>19.5</v>
@@ -4385,10 +4386,10 @@
         <v>198</v>
       </c>
       <c r="J54" t="s">
+        <v>236</v>
+      </c>
+      <c r="K54" t="s">
         <v>237</v>
-      </c>
-      <c r="K54" t="s">
-        <v>238</v>
       </c>
       <c r="L54" t="s">
         <v>17</v>
@@ -4399,13 +4400,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>238</v>
+      </c>
+      <c r="C55" t="s">
         <v>239</v>
       </c>
-      <c r="C55" t="s">
-        <v>240</v>
-      </c>
       <c r="D55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E55">
         <v>19.61</v>
@@ -4420,10 +4421,10 @@
         <v>158</v>
       </c>
       <c r="J55" t="s">
+        <v>240</v>
+      </c>
+      <c r="K55" t="s">
         <v>241</v>
-      </c>
-      <c r="K55" t="s">
-        <v>242</v>
       </c>
       <c r="L55" t="s">
         <v>23</v>
@@ -4437,13 +4438,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C56" t="s">
         <v>243</v>
       </c>
-      <c r="C56" t="s">
-        <v>244</v>
-      </c>
       <c r="D56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E56">
         <v>19.600000000000001</v>
@@ -4458,10 +4459,10 @@
         <v>259</v>
       </c>
       <c r="J56" t="s">
+        <v>244</v>
+      </c>
+      <c r="K56" t="s">
         <v>245</v>
-      </c>
-      <c r="K56" t="s">
-        <v>246</v>
       </c>
       <c r="L56" t="s">
         <v>23</v>
@@ -4475,13 +4476,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>246</v>
+      </c>
+      <c r="C57" t="s">
         <v>247</v>
       </c>
-      <c r="C57" t="s">
-        <v>248</v>
-      </c>
       <c r="D57" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E57">
         <v>20.361999999999998</v>
@@ -4496,16 +4497,16 @@
         <v>259</v>
       </c>
       <c r="J57" t="s">
+        <v>248</v>
+      </c>
+      <c r="K57" t="s">
         <v>249</v>
-      </c>
-      <c r="K57" t="s">
-        <v>250</v>
       </c>
       <c r="L57" t="s">
         <v>23</v>
       </c>
       <c r="M57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -4513,13 +4514,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" t="s">
         <v>252</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>253</v>
-      </c>
-      <c r="D58" t="s">
-        <v>254</v>
       </c>
       <c r="E58">
         <v>20.260000000000002</v>
@@ -4534,13 +4535,13 @@
         <v>209</v>
       </c>
       <c r="J58" t="s">
+        <v>254</v>
+      </c>
+      <c r="K58" t="s">
         <v>255</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>256</v>
-      </c>
-      <c r="L58" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -4548,13 +4549,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>233</v>
+      </c>
+      <c r="C59" t="s">
         <v>234</v>
       </c>
-      <c r="C59" t="s">
-        <v>235</v>
-      </c>
       <c r="D59" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E59">
         <v>20.37</v>
@@ -4569,10 +4570,10 @@
         <v>273</v>
       </c>
       <c r="J59" t="s">
+        <v>258</v>
+      </c>
+      <c r="K59" t="s">
         <v>259</v>
-      </c>
-      <c r="K59" t="s">
-        <v>260</v>
       </c>
       <c r="L59" t="s">
         <v>17</v>
@@ -4583,13 +4584,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>260</v>
+      </c>
+      <c r="C60" t="s">
         <v>261</v>
       </c>
-      <c r="C60" t="s">
-        <v>262</v>
-      </c>
       <c r="D60" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E60">
         <v>20.45</v>
@@ -4604,10 +4605,10 @@
         <v>363</v>
       </c>
       <c r="J60" t="s">
+        <v>262</v>
+      </c>
+      <c r="K60" t="s">
         <v>263</v>
-      </c>
-      <c r="K60" t="s">
-        <v>264</v>
       </c>
       <c r="L60" t="s">
         <v>23</v>
@@ -4621,13 +4622,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>264</v>
+      </c>
+      <c r="C61" t="s">
         <v>265</v>
       </c>
-      <c r="C61" t="s">
-        <v>266</v>
-      </c>
       <c r="D61" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E61">
         <v>20.55</v>
@@ -4659,13 +4660,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>266</v>
+      </c>
+      <c r="C62" t="s">
         <v>267</v>
       </c>
-      <c r="C62" t="s">
-        <v>268</v>
-      </c>
       <c r="D62" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E62">
         <v>20.565000000000001</v>
@@ -4680,10 +4681,10 @@
         <v>179</v>
       </c>
       <c r="J62" t="s">
+        <v>268</v>
+      </c>
+      <c r="K62" t="s">
         <v>269</v>
-      </c>
-      <c r="K62" t="s">
-        <v>270</v>
       </c>
       <c r="L62" t="s">
         <v>23</v>
@@ -4697,13 +4698,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C63" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D63" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E63">
         <v>20.58</v>
@@ -4721,10 +4722,10 @@
         <v>57</v>
       </c>
       <c r="J63" t="s">
+        <v>271</v>
+      </c>
+      <c r="K63" t="s">
         <v>272</v>
-      </c>
-      <c r="K63" t="s">
-        <v>273</v>
       </c>
       <c r="L63" t="s">
         <v>72</v>
@@ -4735,13 +4736,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>273</v>
+      </c>
+      <c r="C64" t="s">
         <v>274</v>
       </c>
-      <c r="C64" t="s">
-        <v>275</v>
-      </c>
       <c r="D64" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E64">
         <v>20.85</v>
@@ -4759,13 +4760,13 @@
         <v>52</v>
       </c>
       <c r="J64" t="s">
+        <v>275</v>
+      </c>
+      <c r="K64" t="s">
         <v>276</v>
       </c>
-      <c r="K64" t="s">
-        <v>277</v>
-      </c>
       <c r="L64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -4773,13 +4774,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C65" t="s">
+        <v>277</v>
+      </c>
+      <c r="D65" t="s">
         <v>278</v>
-      </c>
-      <c r="D65" t="s">
-        <v>279</v>
       </c>
       <c r="E65">
         <v>21.059000000000001</v>
@@ -4794,10 +4795,10 @@
         <v>135</v>
       </c>
       <c r="J65" t="s">
+        <v>279</v>
+      </c>
+      <c r="K65" t="s">
         <v>280</v>
-      </c>
-      <c r="K65" t="s">
-        <v>281</v>
       </c>
       <c r="L65" t="s">
         <v>23</v>
@@ -4811,13 +4812,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C66" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D66" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E66">
         <v>21.13</v>
@@ -4832,10 +4833,10 @@
         <v>261</v>
       </c>
       <c r="J66" t="s">
+        <v>282</v>
+      </c>
+      <c r="K66" t="s">
         <v>283</v>
-      </c>
-      <c r="K66" t="s">
-        <v>284</v>
       </c>
       <c r="L66" t="s">
         <v>23</v>
@@ -4849,13 +4850,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>284</v>
+      </c>
+      <c r="C67" t="s">
         <v>285</v>
       </c>
-      <c r="C67" t="s">
-        <v>286</v>
-      </c>
       <c r="D67" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E67">
         <v>21.29</v>
@@ -4870,10 +4871,10 @@
         <v>258</v>
       </c>
       <c r="J67" t="s">
+        <v>286</v>
+      </c>
+      <c r="K67" t="s">
         <v>287</v>
-      </c>
-      <c r="K67" t="s">
-        <v>288</v>
       </c>
       <c r="L67" t="s">
         <v>23</v>
@@ -4887,13 +4888,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>288</v>
+      </c>
+      <c r="C68" t="s">
         <v>289</v>
       </c>
-      <c r="C68" t="s">
-        <v>290</v>
-      </c>
       <c r="D68" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E68">
         <v>21.46</v>
@@ -4911,10 +4912,10 @@
         <v>72</v>
       </c>
       <c r="J68" t="s">
+        <v>290</v>
+      </c>
+      <c r="K68" t="s">
         <v>291</v>
-      </c>
-      <c r="K68" t="s">
-        <v>292</v>
       </c>
       <c r="L68" t="s">
         <v>29</v>
@@ -4925,13 +4926,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>292</v>
+      </c>
+      <c r="C69" t="s">
         <v>293</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>294</v>
-      </c>
-      <c r="D69" t="s">
-        <v>295</v>
       </c>
       <c r="E69">
         <v>21.45</v>
@@ -4946,13 +4947,13 @@
         <v>220</v>
       </c>
       <c r="J69" t="s">
+        <v>295</v>
+      </c>
+      <c r="K69" t="s">
         <v>296</v>
       </c>
-      <c r="K69" t="s">
-        <v>297</v>
-      </c>
       <c r="L69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -4960,13 +4961,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>297</v>
+      </c>
+      <c r="C70" t="s">
         <v>298</v>
       </c>
-      <c r="C70" t="s">
-        <v>299</v>
-      </c>
       <c r="D70" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E70">
         <v>21.75</v>
@@ -4981,13 +4982,13 @@
         <v>169</v>
       </c>
       <c r="J70" t="s">
+        <v>299</v>
+      </c>
+      <c r="K70" t="s">
         <v>300</v>
       </c>
-      <c r="K70" t="s">
-        <v>301</v>
-      </c>
       <c r="L70" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -4995,13 +4996,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>301</v>
+      </c>
+      <c r="C71" t="s">
         <v>302</v>
       </c>
-      <c r="C71" t="s">
-        <v>303</v>
-      </c>
       <c r="D71" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E71">
         <v>22.22</v>
@@ -5016,10 +5017,10 @@
         <v>184</v>
       </c>
       <c r="J71" t="s">
+        <v>303</v>
+      </c>
+      <c r="K71" t="s">
         <v>304</v>
-      </c>
-      <c r="K71" t="s">
-        <v>305</v>
       </c>
       <c r="L71" t="s">
         <v>23</v>
@@ -5033,13 +5034,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>305</v>
+      </c>
+      <c r="C72" t="s">
         <v>306</v>
       </c>
-      <c r="C72" t="s">
-        <v>307</v>
-      </c>
       <c r="D72" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E72">
         <v>22.13</v>
@@ -5054,10 +5055,10 @@
         <v>296</v>
       </c>
       <c r="J72" t="s">
+        <v>307</v>
+      </c>
+      <c r="K72" t="s">
         <v>308</v>
-      </c>
-      <c r="K72" t="s">
-        <v>309</v>
       </c>
       <c r="L72" t="s">
         <v>118</v>
@@ -5068,13 +5069,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C73" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D73" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E73">
         <v>22.22</v>
@@ -5089,16 +5090,16 @@
         <v>83</v>
       </c>
       <c r="J73" t="s">
+        <v>310</v>
+      </c>
+      <c r="K73" t="s">
         <v>311</v>
-      </c>
-      <c r="K73" t="s">
-        <v>312</v>
       </c>
       <c r="L73" t="s">
         <v>23</v>
       </c>
       <c r="M73" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -5106,13 +5107,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>312</v>
+      </c>
+      <c r="C74" t="s">
         <v>313</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>314</v>
-      </c>
-      <c r="D74" t="s">
-        <v>315</v>
       </c>
       <c r="E74">
         <v>22.23</v>
@@ -5127,10 +5128,10 @@
         <v>138</v>
       </c>
       <c r="J74" t="s">
+        <v>315</v>
+      </c>
+      <c r="K74" t="s">
         <v>316</v>
-      </c>
-      <c r="K74" t="s">
-        <v>317</v>
       </c>
       <c r="L74" t="s">
         <v>23</v>
@@ -5144,13 +5145,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>317</v>
+      </c>
+      <c r="C75" t="s">
         <v>318</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>319</v>
-      </c>
-      <c r="D75" t="s">
-        <v>320</v>
       </c>
       <c r="E75">
         <v>22.38</v>
@@ -5165,16 +5166,16 @@
         <v>304</v>
       </c>
       <c r="J75" t="s">
+        <v>320</v>
+      </c>
+      <c r="K75" t="s">
         <v>321</v>
-      </c>
-      <c r="K75" t="s">
-        <v>322</v>
       </c>
       <c r="L75" t="s">
         <v>34</v>
       </c>
       <c r="M75" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -5182,13 +5183,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>323</v>
+      </c>
+      <c r="C76" t="s">
         <v>324</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>325</v>
-      </c>
-      <c r="D76" t="s">
-        <v>326</v>
       </c>
       <c r="E76">
         <v>22.46</v>
@@ -5197,10 +5198,10 @@
         <v>1594.17</v>
       </c>
       <c r="J76" t="s">
+        <v>326</v>
+      </c>
+      <c r="K76" t="s">
         <v>327</v>
-      </c>
-      <c r="K76" t="s">
-        <v>328</v>
       </c>
       <c r="L76" t="s">
         <v>23</v>
@@ -5214,13 +5215,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>328</v>
+      </c>
+      <c r="C77" t="s">
         <v>329</v>
       </c>
-      <c r="C77" t="s">
-        <v>330</v>
-      </c>
       <c r="D77" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E77">
         <v>22.43</v>
@@ -5235,10 +5236,10 @@
         <v>349</v>
       </c>
       <c r="J77" t="s">
+        <v>330</v>
+      </c>
+      <c r="K77" t="s">
         <v>331</v>
-      </c>
-      <c r="K77" t="s">
-        <v>332</v>
       </c>
       <c r="L77" t="s">
         <v>72</v>
@@ -5249,13 +5250,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>332</v>
+      </c>
+      <c r="C78" t="s">
         <v>333</v>
       </c>
-      <c r="C78" t="s">
-        <v>334</v>
-      </c>
       <c r="D78" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E78">
         <v>22.56</v>
@@ -5270,10 +5271,10 @@
         <v>295</v>
       </c>
       <c r="J78" t="s">
+        <v>334</v>
+      </c>
+      <c r="K78" t="s">
         <v>335</v>
-      </c>
-      <c r="K78" t="s">
-        <v>336</v>
       </c>
       <c r="L78" t="s">
         <v>23</v>
@@ -5287,13 +5288,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>312</v>
+      </c>
+      <c r="C79" t="s">
         <v>313</v>
       </c>
-      <c r="C79" t="s">
-        <v>314</v>
-      </c>
       <c r="D79" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E79">
         <v>22.56</v>
@@ -5308,10 +5309,10 @@
         <v>138</v>
       </c>
       <c r="J79" t="s">
+        <v>337</v>
+      </c>
+      <c r="K79" t="s">
         <v>338</v>
-      </c>
-      <c r="K79" t="s">
-        <v>339</v>
       </c>
       <c r="L79" t="s">
         <v>23</v>
@@ -5325,13 +5326,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>339</v>
+      </c>
+      <c r="C80" t="s">
         <v>340</v>
       </c>
-      <c r="C80" t="s">
-        <v>341</v>
-      </c>
       <c r="D80" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E80">
         <v>22.78</v>
@@ -5349,13 +5350,13 @@
         <v>95</v>
       </c>
       <c r="J80" t="s">
+        <v>341</v>
+      </c>
+      <c r="K80" t="s">
         <v>342</v>
       </c>
-      <c r="K80" t="s">
-        <v>343</v>
-      </c>
       <c r="L80" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -5363,13 +5364,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>343</v>
+      </c>
+      <c r="C81" t="s">
         <v>344</v>
       </c>
-      <c r="C81" t="s">
-        <v>345</v>
-      </c>
       <c r="D81" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E81">
         <v>22.96</v>
@@ -5384,10 +5385,10 @@
         <v>363</v>
       </c>
       <c r="J81" t="s">
+        <v>345</v>
+      </c>
+      <c r="K81" t="s">
         <v>346</v>
-      </c>
-      <c r="K81" t="s">
-        <v>347</v>
       </c>
       <c r="L81" t="s">
         <v>23</v>
@@ -5401,13 +5402,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C82" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D82" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E82">
         <v>23</v>
@@ -5422,10 +5423,10 @@
         <v>296</v>
       </c>
       <c r="J82" t="s">
+        <v>348</v>
+      </c>
+      <c r="K82" t="s">
         <v>349</v>
-      </c>
-      <c r="K82" t="s">
-        <v>350</v>
       </c>
       <c r="L82" t="s">
         <v>23</v>
@@ -5439,13 +5440,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>251</v>
+      </c>
+      <c r="C83" t="s">
         <v>252</v>
       </c>
-      <c r="C83" t="s">
-        <v>253</v>
-      </c>
       <c r="D83" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E83">
         <v>22.9</v>
@@ -5460,13 +5461,13 @@
         <v>281</v>
       </c>
       <c r="J83" t="s">
+        <v>351</v>
+      </c>
+      <c r="K83" t="s">
         <v>352</v>
       </c>
-      <c r="K83" t="s">
-        <v>353</v>
-      </c>
       <c r="L83" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -5474,13 +5475,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>353</v>
+      </c>
+      <c r="C84" t="s">
         <v>354</v>
       </c>
-      <c r="C84" t="s">
-        <v>355</v>
-      </c>
       <c r="D84" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E84">
         <v>23.2</v>
@@ -5495,10 +5496,10 @@
         <v>223</v>
       </c>
       <c r="J84" t="s">
+        <v>355</v>
+      </c>
+      <c r="K84" t="s">
         <v>356</v>
-      </c>
-      <c r="K84" t="s">
-        <v>357</v>
       </c>
       <c r="L84" t="s">
         <v>108</v>
@@ -5509,13 +5510,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>357</v>
+      </c>
+      <c r="C85" t="s">
         <v>358</v>
       </c>
-      <c r="C85" t="s">
-        <v>359</v>
-      </c>
       <c r="D85" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E85">
         <v>23.42</v>
@@ -5530,13 +5531,13 @@
         <v>296</v>
       </c>
       <c r="J85" t="s">
+        <v>359</v>
+      </c>
+      <c r="K85" t="s">
         <v>360</v>
       </c>
-      <c r="K85" t="s">
-        <v>361</v>
-      </c>
       <c r="L85" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -5544,13 +5545,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>361</v>
+      </c>
+      <c r="C86" t="s">
         <v>362</v>
       </c>
-      <c r="C86" t="s">
-        <v>363</v>
-      </c>
       <c r="D86" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E86">
         <v>23.5</v>
@@ -5582,13 +5583,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>363</v>
+      </c>
+      <c r="C87" t="s">
         <v>364</v>
       </c>
-      <c r="C87" t="s">
-        <v>365</v>
-      </c>
       <c r="D87" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E87">
         <v>23.68</v>
@@ -5603,10 +5604,10 @@
         <v>300</v>
       </c>
       <c r="J87" t="s">
+        <v>365</v>
+      </c>
+      <c r="K87" t="s">
         <v>366</v>
-      </c>
-      <c r="K87" t="s">
-        <v>367</v>
       </c>
       <c r="L87" t="s">
         <v>23</v>
@@ -5620,13 +5621,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>367</v>
+      </c>
+      <c r="C88" t="s">
         <v>368</v>
       </c>
-      <c r="C88" t="s">
-        <v>369</v>
-      </c>
       <c r="D88" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E88">
         <v>23.74</v>
@@ -5641,10 +5642,10 @@
         <v>226</v>
       </c>
       <c r="J88" t="s">
+        <v>369</v>
+      </c>
+      <c r="K88" t="s">
         <v>370</v>
-      </c>
-      <c r="K88" t="s">
-        <v>371</v>
       </c>
       <c r="L88" t="s">
         <v>29</v>
@@ -5655,13 +5656,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>371</v>
+      </c>
+      <c r="C89" t="s">
         <v>372</v>
       </c>
-      <c r="C89" t="s">
-        <v>373</v>
-      </c>
       <c r="D89" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E89">
         <v>23.83</v>
@@ -5676,10 +5677,10 @@
         <v>219</v>
       </c>
       <c r="J89" t="s">
+        <v>373</v>
+      </c>
+      <c r="K89" t="s">
         <v>374</v>
-      </c>
-      <c r="K89" t="s">
-        <v>375</v>
       </c>
       <c r="L89" t="s">
         <v>23</v>
@@ -5693,13 +5694,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>375</v>
+      </c>
+      <c r="C90" t="s">
         <v>376</v>
       </c>
-      <c r="C90" t="s">
-        <v>377</v>
-      </c>
       <c r="D90" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E90">
         <v>23.937999999999999</v>
@@ -5714,10 +5715,10 @@
         <v>376</v>
       </c>
       <c r="J90" t="s">
+        <v>377</v>
+      </c>
+      <c r="K90" t="s">
         <v>378</v>
-      </c>
-      <c r="K90" t="s">
-        <v>379</v>
       </c>
       <c r="L90" t="s">
         <v>23</v>
@@ -5731,13 +5732,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>379</v>
+      </c>
+      <c r="C91" t="s">
         <v>380</v>
       </c>
-      <c r="C91" t="s">
-        <v>381</v>
-      </c>
       <c r="D91" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E91">
         <v>24.08</v>
@@ -5752,10 +5753,10 @@
         <v>318</v>
       </c>
       <c r="J91" t="s">
+        <v>381</v>
+      </c>
+      <c r="K91" t="s">
         <v>382</v>
-      </c>
-      <c r="K91" t="s">
-        <v>383</v>
       </c>
       <c r="L91" t="s">
         <v>23</v>
@@ -5769,13 +5770,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>383</v>
+      </c>
+      <c r="C92" t="s">
         <v>384</v>
       </c>
-      <c r="C92" t="s">
-        <v>385</v>
-      </c>
       <c r="D92" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E92">
         <v>24.29</v>
@@ -5790,10 +5791,10 @@
         <v>129</v>
       </c>
       <c r="J92" t="s">
+        <v>385</v>
+      </c>
+      <c r="K92" t="s">
         <v>386</v>
-      </c>
-      <c r="K92" t="s">
-        <v>387</v>
       </c>
       <c r="L92" t="s">
         <v>23</v>
@@ -5807,13 +5808,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>387</v>
+      </c>
+      <c r="C93" t="s">
         <v>388</v>
       </c>
-      <c r="C93" t="s">
-        <v>389</v>
-      </c>
       <c r="D93" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E93">
         <v>24.51</v>
@@ -5831,16 +5832,16 @@
         <v>98</v>
       </c>
       <c r="J93" t="s">
+        <v>389</v>
+      </c>
+      <c r="K93" t="s">
         <v>390</v>
-      </c>
-      <c r="K93" t="s">
-        <v>391</v>
       </c>
       <c r="L93" t="s">
         <v>34</v>
       </c>
       <c r="M93" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -5848,13 +5849,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>392</v>
+      </c>
+      <c r="C94" t="s">
         <v>393</v>
       </c>
-      <c r="C94" t="s">
-        <v>394</v>
-      </c>
       <c r="D94" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E94">
         <v>25.17</v>
@@ -5869,10 +5870,10 @@
         <v>310</v>
       </c>
       <c r="J94" t="s">
+        <v>394</v>
+      </c>
+      <c r="K94" t="s">
         <v>395</v>
-      </c>
-      <c r="K94" t="s">
-        <v>396</v>
       </c>
       <c r="L94" t="s">
         <v>23</v>
@@ -5886,13 +5887,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>396</v>
+      </c>
+      <c r="C95" t="s">
         <v>397</v>
       </c>
-      <c r="C95" t="s">
-        <v>398</v>
-      </c>
       <c r="D95" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E95">
         <v>25.15</v>
@@ -5910,10 +5911,10 @@
         <v>60</v>
       </c>
       <c r="J95" t="s">
+        <v>398</v>
+      </c>
+      <c r="K95" t="s">
         <v>399</v>
-      </c>
-      <c r="K95" t="s">
-        <v>400</v>
       </c>
       <c r="L95" t="s">
         <v>64</v>
@@ -5924,13 +5925,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>400</v>
+      </c>
+      <c r="C96" t="s">
         <v>401</v>
       </c>
-      <c r="C96" t="s">
-        <v>402</v>
-      </c>
       <c r="D96" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E96">
         <v>25.63</v>
@@ -5945,10 +5946,10 @@
         <v>254</v>
       </c>
       <c r="J96" t="s">
+        <v>402</v>
+      </c>
+      <c r="K96" t="s">
         <v>403</v>
-      </c>
-      <c r="K96" t="s">
-        <v>404</v>
       </c>
       <c r="L96" t="s">
         <v>23</v>
@@ -5962,13 +5963,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>404</v>
+      </c>
+      <c r="C97" t="s">
         <v>405</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>406</v>
-      </c>
-      <c r="D97" t="s">
-        <v>407</v>
       </c>
       <c r="E97">
         <v>25.58</v>
@@ -5986,10 +5987,10 @@
         <v>86</v>
       </c>
       <c r="J97" t="s">
+        <v>407</v>
+      </c>
+      <c r="K97" t="s">
         <v>408</v>
-      </c>
-      <c r="K97" t="s">
-        <v>409</v>
       </c>
       <c r="L97" t="s">
         <v>17</v>
@@ -6000,13 +6001,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>409</v>
+      </c>
+      <c r="C98" t="s">
         <v>410</v>
       </c>
-      <c r="C98" t="s">
-        <v>411</v>
-      </c>
       <c r="D98" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E98">
         <v>25.83</v>
@@ -6021,10 +6022,10 @@
         <v>312</v>
       </c>
       <c r="J98" t="s">
+        <v>411</v>
+      </c>
+      <c r="K98" t="s">
         <v>412</v>
-      </c>
-      <c r="K98" t="s">
-        <v>413</v>
       </c>
       <c r="L98" t="s">
         <v>23</v>
@@ -6038,13 +6039,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>413</v>
+      </c>
+      <c r="C99" t="s">
         <v>414</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>415</v>
-      </c>
-      <c r="D99" t="s">
-        <v>416</v>
       </c>
       <c r="E99">
         <v>25.69</v>
@@ -6062,13 +6063,13 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
+        <v>416</v>
+      </c>
+      <c r="K99" t="s">
         <v>417</v>
       </c>
-      <c r="K99" t="s">
-        <v>418</v>
-      </c>
       <c r="L99" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -6076,13 +6077,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>418</v>
+      </c>
+      <c r="C100" t="s">
         <v>419</v>
       </c>
-      <c r="C100" t="s">
-        <v>420</v>
-      </c>
       <c r="D100" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E100">
         <v>25.88</v>
@@ -6100,10 +6101,10 @@
         <v>82</v>
       </c>
       <c r="J100" t="s">
+        <v>420</v>
+      </c>
+      <c r="K100" t="s">
         <v>421</v>
-      </c>
-      <c r="K100" t="s">
-        <v>422</v>
       </c>
       <c r="L100" t="s">
         <v>34</v>
@@ -6114,13 +6115,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>422</v>
+      </c>
+      <c r="C101" t="s">
         <v>423</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>424</v>
-      </c>
-      <c r="D101" t="s">
-        <v>425</v>
       </c>
       <c r="E101">
         <v>26.196999999999999</v>
@@ -6135,10 +6136,10 @@
         <v>341</v>
       </c>
       <c r="J101" t="s">
+        <v>425</v>
+      </c>
+      <c r="K101" t="s">
         <v>426</v>
-      </c>
-      <c r="K101" t="s">
-        <v>427</v>
       </c>
       <c r="L101" t="s">
         <v>23</v>
@@ -6147,7 +6148,7 @@
         <v>77</v>
       </c>
       <c r="N101" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -6155,13 +6156,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>428</v>
+      </c>
+      <c r="C102" t="s">
         <v>429</v>
       </c>
-      <c r="C102" t="s">
-        <v>430</v>
-      </c>
       <c r="D102" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E102">
         <v>26.23</v>
@@ -6176,10 +6177,10 @@
         <v>341</v>
       </c>
       <c r="J102" t="s">
+        <v>430</v>
+      </c>
+      <c r="K102" t="s">
         <v>431</v>
-      </c>
-      <c r="K102" t="s">
-        <v>432</v>
       </c>
       <c r="L102" t="s">
         <v>23</v>
@@ -6193,13 +6194,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>432</v>
+      </c>
+      <c r="C103" t="s">
         <v>433</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>434</v>
-      </c>
-      <c r="D103" t="s">
-        <v>435</v>
       </c>
       <c r="E103">
         <v>26.26</v>
@@ -6217,10 +6218,10 @@
         <v>70</v>
       </c>
       <c r="J103" t="s">
+        <v>435</v>
+      </c>
+      <c r="K103" t="s">
         <v>436</v>
-      </c>
-      <c r="K103" t="s">
-        <v>437</v>
       </c>
       <c r="L103" t="s">
         <v>17</v>
@@ -6231,13 +6232,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>437</v>
+      </c>
+      <c r="C104" t="s">
         <v>438</v>
       </c>
-      <c r="C104" t="s">
-        <v>439</v>
-      </c>
       <c r="D104" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E104">
         <v>26.96</v>
@@ -6255,10 +6256,10 @@
         <v>21</v>
       </c>
       <c r="J104" t="s">
+        <v>439</v>
+      </c>
+      <c r="K104" t="s">
         <v>440</v>
-      </c>
-      <c r="K104" t="s">
-        <v>441</v>
       </c>
       <c r="L104" t="s">
         <v>64</v>
@@ -6269,13 +6270,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>441</v>
+      </c>
+      <c r="C105" t="s">
         <v>442</v>
       </c>
-      <c r="C105" t="s">
-        <v>443</v>
-      </c>
       <c r="D105" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E105">
         <v>26.95</v>
@@ -6293,10 +6294,10 @@
         <v>69</v>
       </c>
       <c r="J105" t="s">
+        <v>443</v>
+      </c>
+      <c r="K105" t="s">
         <v>444</v>
-      </c>
-      <c r="K105" t="s">
-        <v>445</v>
       </c>
       <c r="L105" t="s">
         <v>29</v>
@@ -6307,13 +6308,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>445</v>
+      </c>
+      <c r="C106" t="s">
         <v>446</v>
       </c>
-      <c r="C106" t="s">
-        <v>447</v>
-      </c>
       <c r="D106" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E106">
         <v>27.02</v>
@@ -6328,10 +6329,10 @@
         <v>465</v>
       </c>
       <c r="J106" t="s">
+        <v>447</v>
+      </c>
+      <c r="K106" t="s">
         <v>448</v>
-      </c>
-      <c r="K106" t="s">
-        <v>449</v>
       </c>
       <c r="L106" t="s">
         <v>72</v>
@@ -6345,13 +6346,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
+        <v>449</v>
+      </c>
+      <c r="C107" t="s">
         <v>450</v>
       </c>
-      <c r="C107" t="s">
-        <v>451</v>
-      </c>
       <c r="D107" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E107">
         <v>27.06</v>
@@ -6366,10 +6367,10 @@
         <v>273</v>
       </c>
       <c r="J107" t="s">
+        <v>451</v>
+      </c>
+      <c r="K107" t="s">
         <v>452</v>
-      </c>
-      <c r="K107" t="s">
-        <v>453</v>
       </c>
       <c r="L107" t="s">
         <v>23</v>
@@ -6383,13 +6384,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>453</v>
+      </c>
+      <c r="C108" t="s">
         <v>454</v>
       </c>
-      <c r="C108" t="s">
-        <v>455</v>
-      </c>
       <c r="D108" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E108">
         <v>27.32</v>
@@ -6404,10 +6405,10 @@
         <v>479</v>
       </c>
       <c r="J108" t="s">
+        <v>455</v>
+      </c>
+      <c r="K108" t="s">
         <v>456</v>
-      </c>
-      <c r="K108" t="s">
-        <v>457</v>
       </c>
       <c r="L108" t="s">
         <v>23</v>
@@ -6421,13 +6422,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>457</v>
+      </c>
+      <c r="C109" t="s">
         <v>458</v>
       </c>
-      <c r="C109" t="s">
-        <v>459</v>
-      </c>
       <c r="D109" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E109">
         <v>27.33</v>
@@ -6442,10 +6443,10 @@
         <v>398</v>
       </c>
       <c r="J109" t="s">
+        <v>459</v>
+      </c>
+      <c r="K109" t="s">
         <v>460</v>
-      </c>
-      <c r="K109" t="s">
-        <v>461</v>
       </c>
       <c r="L109" t="s">
         <v>34</v>
@@ -6456,13 +6457,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C110" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D110" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E110">
         <v>27.45</v>
@@ -6477,10 +6478,10 @@
         <v>479</v>
       </c>
       <c r="J110" t="s">
+        <v>462</v>
+      </c>
+      <c r="K110" t="s">
         <v>463</v>
-      </c>
-      <c r="K110" t="s">
-        <v>464</v>
       </c>
       <c r="L110" t="s">
         <v>23</v>
@@ -6494,13 +6495,13 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
+        <v>464</v>
+      </c>
+      <c r="C111" t="s">
         <v>465</v>
       </c>
-      <c r="C111" t="s">
-        <v>466</v>
-      </c>
       <c r="D111" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E111">
         <v>27.48</v>
@@ -6515,10 +6516,10 @@
         <v>293</v>
       </c>
       <c r="J111" t="s">
+        <v>466</v>
+      </c>
+      <c r="K111" t="s">
         <v>467</v>
-      </c>
-      <c r="K111" t="s">
-        <v>468</v>
       </c>
       <c r="L111" t="s">
         <v>108</v>
@@ -6529,13 +6530,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>413</v>
+      </c>
+      <c r="C112" t="s">
         <v>414</v>
       </c>
-      <c r="C112" t="s">
-        <v>415</v>
-      </c>
       <c r="D112" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E112">
         <v>27.57</v>
@@ -6550,13 +6551,13 @@
         <v>305</v>
       </c>
       <c r="J112" t="s">
+        <v>469</v>
+      </c>
+      <c r="K112" t="s">
         <v>470</v>
       </c>
-      <c r="K112" t="s">
-        <v>471</v>
-      </c>
       <c r="L112" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -6564,13 +6565,13 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
+        <v>471</v>
+      </c>
+      <c r="C113" t="s">
         <v>472</v>
       </c>
-      <c r="C113" t="s">
-        <v>473</v>
-      </c>
       <c r="D113" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E113">
         <v>27.87</v>
@@ -6585,16 +6586,16 @@
         <v>250</v>
       </c>
       <c r="J113" t="s">
+        <v>473</v>
+      </c>
+      <c r="K113" t="s">
         <v>474</v>
       </c>
-      <c r="K113" t="s">
+      <c r="L113" t="s">
+        <v>218</v>
+      </c>
+      <c r="M113" t="s">
         <v>475</v>
-      </c>
-      <c r="L113" t="s">
-        <v>219</v>
-      </c>
-      <c r="M113" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -6602,13 +6603,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>476</v>
+      </c>
+      <c r="C114" t="s">
         <v>477</v>
       </c>
-      <c r="C114" t="s">
-        <v>478</v>
-      </c>
       <c r="D114" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E114">
         <v>27.89</v>
@@ -6626,13 +6627,13 @@
         <v>6</v>
       </c>
       <c r="J114" t="s">
+        <v>478</v>
+      </c>
+      <c r="K114" t="s">
         <v>479</v>
       </c>
-      <c r="K114" t="s">
-        <v>480</v>
-      </c>
       <c r="L114" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -6640,13 +6641,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
+        <v>480</v>
+      </c>
+      <c r="C115" t="s">
         <v>481</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>482</v>
-      </c>
-      <c r="D115" t="s">
-        <v>483</v>
       </c>
       <c r="E115">
         <v>27.81</v>
@@ -6664,10 +6665,10 @@
         <v>49</v>
       </c>
       <c r="J115" t="s">
+        <v>483</v>
+      </c>
+      <c r="K115" t="s">
         <v>484</v>
-      </c>
-      <c r="K115" t="s">
-        <v>485</v>
       </c>
       <c r="L115" t="s">
         <v>49</v>
@@ -6684,13 +6685,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>485</v>
+      </c>
+      <c r="C116" t="s">
         <v>486</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>487</v>
-      </c>
-      <c r="D116" t="s">
-        <v>488</v>
       </c>
       <c r="E116">
         <v>28.16</v>
@@ -6708,10 +6709,10 @@
         <v>42</v>
       </c>
       <c r="J116" t="s">
+        <v>488</v>
+      </c>
+      <c r="K116" t="s">
         <v>489</v>
-      </c>
-      <c r="K116" t="s">
-        <v>490</v>
       </c>
       <c r="L116" t="s">
         <v>108</v>
@@ -6722,13 +6723,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>490</v>
+      </c>
+      <c r="C117" t="s">
         <v>491</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>492</v>
-      </c>
-      <c r="D117" t="s">
-        <v>493</v>
       </c>
       <c r="E117">
         <v>28.21</v>
@@ -6746,10 +6747,10 @@
         <v>28</v>
       </c>
       <c r="J117" t="s">
+        <v>493</v>
+      </c>
+      <c r="K117" t="s">
         <v>494</v>
-      </c>
-      <c r="K117" t="s">
-        <v>495</v>
       </c>
       <c r="L117" t="s">
         <v>118</v>
@@ -6760,13 +6761,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
+        <v>495</v>
+      </c>
+      <c r="C118" t="s">
         <v>496</v>
       </c>
-      <c r="C118" t="s">
-        <v>497</v>
-      </c>
       <c r="D118" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E118">
         <v>28.27</v>
@@ -6781,10 +6782,10 @@
         <v>252</v>
       </c>
       <c r="J118" t="s">
+        <v>497</v>
+      </c>
+      <c r="K118" t="s">
         <v>498</v>
-      </c>
-      <c r="K118" t="s">
-        <v>499</v>
       </c>
       <c r="L118" t="s">
         <v>23</v>
@@ -6798,13 +6799,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
+        <v>499</v>
+      </c>
+      <c r="C119" t="s">
         <v>500</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>501</v>
-      </c>
-      <c r="D119" t="s">
-        <v>502</v>
       </c>
       <c r="E119">
         <v>28.29</v>
@@ -6819,13 +6820,13 @@
         <v>383</v>
       </c>
       <c r="J119" t="s">
+        <v>502</v>
+      </c>
+      <c r="K119" t="s">
         <v>503</v>
       </c>
-      <c r="K119" t="s">
-        <v>504</v>
-      </c>
       <c r="L119" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -6833,13 +6834,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
+        <v>490</v>
+      </c>
+      <c r="C120" t="s">
         <v>491</v>
       </c>
-      <c r="C120" t="s">
-        <v>492</v>
-      </c>
       <c r="D120" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E120">
         <v>29.06</v>
@@ -6854,10 +6855,10 @@
         <v>319</v>
       </c>
       <c r="J120" t="s">
+        <v>505</v>
+      </c>
+      <c r="K120" t="s">
         <v>506</v>
-      </c>
-      <c r="K120" t="s">
-        <v>507</v>
       </c>
       <c r="L120" t="s">
         <v>118</v>
@@ -6868,13 +6869,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
+        <v>507</v>
+      </c>
+      <c r="C121" t="s">
         <v>508</v>
       </c>
-      <c r="C121" t="s">
-        <v>509</v>
-      </c>
       <c r="D121" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E121">
         <v>29.704999999999998</v>
@@ -6889,16 +6890,16 @@
         <v>264</v>
       </c>
       <c r="J121" t="s">
+        <v>509</v>
+      </c>
+      <c r="K121" t="s">
         <v>510</v>
-      </c>
-      <c r="K121" t="s">
-        <v>511</v>
       </c>
       <c r="L121" t="s">
         <v>23</v>
       </c>
       <c r="M121" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -6906,13 +6907,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
+        <v>513</v>
+      </c>
+      <c r="C122" t="s">
         <v>514</v>
       </c>
-      <c r="C122" t="s">
-        <v>515</v>
-      </c>
       <c r="D122" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E122">
         <v>30.12</v>
@@ -6927,10 +6928,10 @@
         <v>305</v>
       </c>
       <c r="J122" t="s">
+        <v>515</v>
+      </c>
+      <c r="K122" t="s">
         <v>516</v>
-      </c>
-      <c r="K122" t="s">
-        <v>517</v>
       </c>
       <c r="L122" t="s">
         <v>23</v>
@@ -6944,13 +6945,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
+        <v>517</v>
+      </c>
+      <c r="C123" t="s">
         <v>518</v>
       </c>
-      <c r="C123" t="s">
-        <v>519</v>
-      </c>
       <c r="D123" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E123">
         <v>30.166</v>
@@ -6965,16 +6966,16 @@
         <v>338</v>
       </c>
       <c r="J123" t="s">
+        <v>519</v>
+      </c>
+      <c r="K123" t="s">
         <v>520</v>
-      </c>
-      <c r="K123" t="s">
-        <v>521</v>
       </c>
       <c r="L123" t="s">
         <v>23</v>
       </c>
       <c r="M123" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -6982,13 +6983,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
+        <v>521</v>
+      </c>
+      <c r="C124" t="s">
         <v>522</v>
       </c>
-      <c r="C124" t="s">
-        <v>523</v>
-      </c>
       <c r="D124" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E124">
         <v>30.16</v>
@@ -7006,13 +7007,13 @@
         <v>64</v>
       </c>
       <c r="J124" t="s">
+        <v>523</v>
+      </c>
+      <c r="K124" t="s">
         <v>524</v>
       </c>
-      <c r="K124" t="s">
-        <v>525</v>
-      </c>
       <c r="L124" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -7020,13 +7021,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
+        <v>525</v>
+      </c>
+      <c r="C125" t="s">
         <v>526</v>
       </c>
-      <c r="C125" t="s">
-        <v>527</v>
-      </c>
       <c r="D125" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E125">
         <v>30.68</v>
@@ -7044,10 +7045,10 @@
         <v>69</v>
       </c>
       <c r="J125" t="s">
+        <v>527</v>
+      </c>
+      <c r="K125" t="s">
         <v>528</v>
-      </c>
-      <c r="K125" t="s">
-        <v>529</v>
       </c>
       <c r="L125" t="s">
         <v>118</v>
@@ -7058,13 +7059,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
+        <v>511</v>
+      </c>
+      <c r="C126" t="s">
         <v>512</v>
       </c>
-      <c r="C126" t="s">
-        <v>513</v>
-      </c>
       <c r="D126" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E126" s="6">
         <v>31.03</v>
@@ -7079,10 +7080,10 @@
         <v>243</v>
       </c>
       <c r="J126" t="s">
+        <v>571</v>
+      </c>
+      <c r="K126" t="s">
         <v>572</v>
-      </c>
-      <c r="K126" t="s">
-        <v>573</v>
       </c>
       <c r="L126" t="s">
         <v>23</v>
@@ -7096,13 +7097,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
+        <v>529</v>
+      </c>
+      <c r="C127" t="s">
         <v>530</v>
       </c>
-      <c r="C127" t="s">
-        <v>531</v>
-      </c>
       <c r="D127" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E127">
         <v>31.01</v>
@@ -7120,10 +7121,10 @@
         <v>50</v>
       </c>
       <c r="J127" t="s">
+        <v>531</v>
+      </c>
+      <c r="K127" t="s">
         <v>532</v>
-      </c>
-      <c r="K127" t="s">
-        <v>533</v>
       </c>
       <c r="L127" t="s">
         <v>34</v>
@@ -7134,13 +7135,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
+        <v>533</v>
+      </c>
+      <c r="C128" t="s">
         <v>534</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>535</v>
-      </c>
-      <c r="D128" t="s">
-        <v>536</v>
       </c>
       <c r="E128">
         <v>31.82</v>
@@ -7155,10 +7156,10 @@
         <v>218</v>
       </c>
       <c r="J128" t="s">
+        <v>536</v>
+      </c>
+      <c r="K128" t="s">
         <v>537</v>
-      </c>
-      <c r="K128" t="s">
-        <v>538</v>
       </c>
       <c r="L128" t="s">
         <v>23</v>
@@ -7172,13 +7173,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C129" t="s">
+        <v>538</v>
+      </c>
+      <c r="D129" t="s">
         <v>539</v>
-      </c>
-      <c r="D129" t="s">
-        <v>540</v>
       </c>
       <c r="E129">
         <v>31.82</v>
@@ -7193,10 +7194,10 @@
         <v>308</v>
       </c>
       <c r="J129" t="s">
+        <v>536</v>
+      </c>
+      <c r="K129" t="s">
         <v>537</v>
-      </c>
-      <c r="K129" t="s">
-        <v>538</v>
       </c>
       <c r="L129" t="s">
         <v>23</v>
@@ -7210,13 +7211,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
+        <v>540</v>
+      </c>
+      <c r="C130" t="s">
         <v>541</v>
       </c>
-      <c r="C130" t="s">
-        <v>542</v>
-      </c>
       <c r="D130" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E130">
         <v>31.85</v>
@@ -7231,10 +7232,10 @@
         <v>339</v>
       </c>
       <c r="J130" t="s">
+        <v>542</v>
+      </c>
+      <c r="K130" t="s">
         <v>543</v>
-      </c>
-      <c r="K130" t="s">
-        <v>544</v>
       </c>
       <c r="L130" t="s">
         <v>29</v>
@@ -7245,13 +7246,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
+        <v>544</v>
+      </c>
+      <c r="C131" t="s">
         <v>545</v>
       </c>
-      <c r="C131" t="s">
-        <v>546</v>
-      </c>
       <c r="D131" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E131">
         <v>32.43</v>
@@ -7269,13 +7270,13 @@
         <v>32</v>
       </c>
       <c r="J131" t="s">
+        <v>546</v>
+      </c>
+      <c r="K131" t="s">
         <v>547</v>
       </c>
-      <c r="K131" t="s">
-        <v>548</v>
-      </c>
       <c r="L131" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -7283,13 +7284,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
+        <v>548</v>
+      </c>
+      <c r="C132" t="s">
         <v>549</v>
       </c>
-      <c r="C132" t="s">
-        <v>550</v>
-      </c>
       <c r="D132" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E132">
         <v>32.43</v>
@@ -7304,10 +7305,10 @@
         <v>335</v>
       </c>
       <c r="J132" t="s">
+        <v>550</v>
+      </c>
+      <c r="K132" t="s">
         <v>551</v>
-      </c>
-      <c r="K132" t="s">
-        <v>552</v>
       </c>
       <c r="L132" t="s">
         <v>23</v>
@@ -7321,13 +7322,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
+        <v>552</v>
+      </c>
+      <c r="C133" t="s">
         <v>553</v>
       </c>
-      <c r="C133" t="s">
-        <v>554</v>
-      </c>
       <c r="D133" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E133">
         <v>32.880000000000003</v>
@@ -7342,10 +7343,10 @@
         <v>294</v>
       </c>
       <c r="J133" t="s">
+        <v>554</v>
+      </c>
+      <c r="K133" t="s">
         <v>555</v>
-      </c>
-      <c r="K133" t="s">
-        <v>556</v>
       </c>
       <c r="L133" t="s">
         <v>72</v>
@@ -7356,13 +7357,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
+        <v>556</v>
+      </c>
+      <c r="C134" t="s">
         <v>557</v>
       </c>
-      <c r="C134" t="s">
-        <v>558</v>
-      </c>
       <c r="D134" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E134">
         <v>33</v>
@@ -7377,10 +7378,10 @@
         <v>356</v>
       </c>
       <c r="J134" t="s">
+        <v>558</v>
+      </c>
+      <c r="K134" t="s">
         <v>559</v>
-      </c>
-      <c r="K134" t="s">
-        <v>560</v>
       </c>
       <c r="L134" t="s">
         <v>49</v>
@@ -7391,13 +7392,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
+        <v>560</v>
+      </c>
+      <c r="C135" t="s">
         <v>561</v>
       </c>
-      <c r="C135" t="s">
-        <v>562</v>
-      </c>
       <c r="D135" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E135">
         <v>44.24</v>
@@ -7412,16 +7413,16 @@
         <v>458</v>
       </c>
       <c r="J135" t="s">
+        <v>562</v>
+      </c>
+      <c r="K135" t="s">
         <v>563</v>
-      </c>
-      <c r="K135" t="s">
-        <v>564</v>
       </c>
       <c r="L135" t="s">
         <v>64</v>
       </c>
       <c r="M135" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>

--- a/lib/APGCMS/APGCMS/lib/lib_urine_20160406.xlsx
+++ b/lib/APGCMS/APGCMS/lib/lib_urine_20160406.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="700" windowWidth="20420" windowHeight="13900" tabRatio="500"/>
+    <workbookView xWindow="3980" yWindow="1720" windowWidth="20420" windowHeight="12600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="lib_urine_20160329.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="588">
   <si>
     <t>SeqIndex</t>
   </si>
@@ -207,12 +207,6 @@
     <t>2-Hydroxy-2-methylbutyric acid</t>
   </si>
   <si>
-    <t>40 41 42 43 44 45 46 47 48 49 50 51 52 53 54 55 56 57 58 59 60 61 62 63 64 65 66 68 69 70 71 72 73 74 75 76 77 78 79 80 81 82 83 84 85 86 87 88 89 90 91 92 93 94 95 96 97 98 99 100 101 102 103 104 105 106 107 108 110 111 112 113 114 115 116 117 118 119 120 121 125 127 128 129 130 131 132 133 134 135 136 137 141 142 143 144 145 146 147 148 149 150 151 152 153 155 156 157 158 159 160 161 162 163 164 165 166 170 171 172 173 174 175 176 177 178 179 186 187 188 189 190 191 192 193 194 197 201 203 204 205 206 207 208 209 215 216 217 218 219 220 221 222 223 224 229 231 232 233 234 235 236 237 245 247 248 249 250 251 261 262 263 264 265 267 281 282 283 291 323 335 378 379 380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1170 19008 3305 64568 24600 122200 8597 25016 1007 1002 234 2184 5007 4346 2243 30768 5052 27304 15510 46280 6175 29304 1932 1213 223 1056 50232 688 16944 6698 7883 36440 1698816 151296 260096 16584 14095 976 911 607 19656 4879 11066 1857 6681 2339 9571 15136 5052 469 1018 247 558 6308 1603 276 1378 598 5666 1099 11554 36632 22592 2355 7033 779 828 4357 279 788 900 12208 2124 28016 16408 35928 5016 12391 1758 1027 353 2067 1499 50024 10384 78744 12521 148416 20728 14459 1248 566 395 694 20816 34912 3650048 499008 1997312 305664 179968 19376 6096 529 220 506 2941 67784 9165 5166 594 2603 483 41328 7482 3590 500 226 907 793 2638 920 8521 1307 1276 211 177 316 497 884 6280 20168 9093 2552 873 165 193 538 3084 849 2056 245 1537 237 195 615 279 4830 5986 609728 125400 57520 7542 1768 270 212 10039 2711 139008 29296 12793 1826 291 2254 195136 40856 19512 2876 739 273 254 949 239 303 245 1264 399 206 338 364 376 242 601 214 </t>
-  </si>
-  <si>
     <t>Mix4-7</t>
   </si>
   <si>
@@ -420,12 +414,6 @@
     <t>Benzoic acid</t>
   </si>
   <si>
-    <t>41 42 43 44 45 46 47 48 49 50 51 52 53 54 55 56 57 58 59 60 61 62 63 64 65 66 67 68 69 70 71 72 73 74 75 76 77 78 79 80 81 82 83 84 85 86 87 88 89 91 92 93 94 95 96 97 98 99 100 101 102 103 104 105 106 107 108 109 110 113 114 115 116 117 118 119 120 121 122 123 127 128 129 130 131 132 133 134 135 136 137 138 139 143 144 145 146 147 148 149 150 151 152 156 157 158 159 161 162 163 164 165 166 170 171 172 173 174 175 176 177 179 180 181 182 183 186 188 189 190 191 192 193 194 195 196 197 205 207 208 209 219 220 221 222 223 247 248 249 250 260 261 262 263 264 265 267 273 281 291 363 379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">974 1428 10312 5433 22688 1752 9749 519 659 10642 46624 2674 2473 504 2398 1386 2485 2939 5974 1956 2417 648 1313 551 2463 969 1227 648 1044 1014 1329 5138 35704 8875 28896 17792 324160 23896 2261 246 899 461 972 373 1212 519 1132 185 32336 5844 1338 1914 354 1418 959 328 162 957 1096 409 426 2574 5592 619648 48504 5859 543 1096 182 169 285 859 321 1201 1301 7752 2068 9016 1350 761 313 164 474 374 1370 652 3378 6982 551744 77800 23224 1854 162 224 199 660 400 7294 1409 10346 2379 1504 324 237 429 157 257 529 166 3690 2690 661 200 197 3477 886 741 414 2279 609 874 1157632 178624 55800 4941 487 179 931 5486 1491 2961 854 23360 105032 18160 5248 538 428 1029 264 199 532 163 2906 703 393 420 396 1131 301 174 1017 482 1303 322 282 228 153 403 181 207 298 </t>
-  </si>
-  <si>
     <t>HMDB00317</t>
   </si>
   <si>
@@ -516,12 +504,6 @@
     <t>2-Methylsuccinic acid</t>
   </si>
   <si>
-    <t>40 41 42 43 44 45 46 47 48 49 51 52 53 55 56 57 58 59 60 61 62 63 64 65 66 67 68 69 70 71 72 73 74 75 76 77 78 79 81 82 83 84 85 86 87 88 89 90 91 92 93 94 95 96 97 98 99 100 101 102 103 104 105 106 107 108 109 111 112 113 114 115 116 117 118 119 120 121 123 125 126 127 128 129 130 131 132 133 134 135 136 137 139 140 141 142 143 144 145 147 148 149 150 151 152 153 155 156 157 158 159 160 161 162 163 164 165 166 167 168 169 170 171 172 173 174 175 176 177 178 179 183 185 186 187 188 189 190 191 192 193 194 199 201 202 203 204 205 206 207 208 209 214 215 217 218 219 220 221 222 223 229 230 231 232 233 234 235 236 244 245 246 247 249 253 258 259 261 262 263 264 265 266 275 276 277 278 279 281 282 335 349 350 351 423 424 425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4386 63928 25776 44168 34944 172992 11904 59672 2814 2016 2995 4384 3618 345920 16207 15509 34352 53648 12525 49336 3367 1906 236 753 15975 4372 10440 279360 123152 21464 94672 2066432 195968 565184 39456 24096 1267 660 635 714 4458 2146 20896 13409 9876 6415 10953 1441 1967 276 531 150 1151 13104 11254 6319 53840 8738 17520 6322 15097 2465 8548 760 945 153 256 1622 1033 10985 2545 31984 30192 105064 12836 15231 1803 993 148544 2597 508 28200 6344 193408 39000 98224 21576 208960 28936 18992 2080 583 217 359 1607 27088 283328 43816 55528 6396416 1191936 671168 68832 18984 1285 389 688 1206 31640 100616 76536 13076 4621 7800 10207 2272 1055 2455 309 301 525 28528 17680 3210 4628 819 25848 4209 4274 464 384 218 3355 359936 186240 37640 26248 55584 26640 7511 2189 264 330 6055 1264 8098 212032 40680 18024 3537 558 319 180 1610 1020928 209600 90120 11856 2872 486 215 154 327 18904 348416 76408 30952 4158 669 208 3542 622 392 231 283 1622 1290 1540096 333120 145792 20248 3805 358 636 17768 4285 1568 271 445 202 252 2547 819 293 2208 925 464 </t>
-  </si>
-  <si>
     <t>Mix5-7</t>
   </si>
   <si>
@@ -657,12 +639,6 @@
     <t>Glutaric acid</t>
   </si>
   <si>
-    <t>40 41 42 43 44 45 46 47 48 49 50 51 52 53 55 56 57 58 59 60 61 62 63 64 65 66 67 68 69 70 71 72 73 74 75 76 77 78 79 80 81 82 83 84 85 86 87 88 89 90 91 92 93 94 95 96 97 98 99 100 101 102 103 104 105 106 107 109 110 111 112 113 114 115 116 117 118 119 120 121 123 125 126 127 128 129 130 131 132 133 134 135 136 137 139 141 142 143 144 145 147 148 149 150 151 152 153 154 155 156 158 159 160 161 162 163 164 165 166 167 168 169 170 171 172 173 174 175 176 177 178 179 183 185 186 187 188 189 190 191 192 193 194 199 201 202 203 204 205 206 207 208 209 215 216 217 218 219 220 221 222 230 231 233 234 235 236 237 243 244 245 246 247 248 249 251 257 258 261 262 263 264 265 266 267 275 276 277 278 279 281 295 335 349 350 351 423 424 425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2776 23776 22856 73240 30304 153664 10809 66256 3126 2379 194 2512 2125 4991 688576 25968 14999 33976 45824 14331 69832 4415 2800 213 502 8837 2378 20376 43528 14027 12922 143360 1652224 167296 712256 50920 31288 1370 595 239 1203 316 2284 2073 50016 8812 10967 27648 23424 3572 3159 314 638 236 5141 6167 385792 26648 42352 7169 69368 11384 15216 2777 6632 876 804 813 196 3806 683 18368 4015 45464 333440 180160 28432 17016 1784 1288 93968 1789 553 26696 12400 482944 233088 112520 31448 2e+05 28232 19832 2078 972 283 1315 11184 67176 10617 104008 4599808 794816 624192 73008 26344 2220 807 221 722 1288 1126912 280448 67352 12503 42984 23136 5917 3446 730 259 182 2343 1297 37528 5340 6797 876 2737 743 945 261 239 308 3817 445312 227904 45864 111888 22424 19240 2927 1279 150 175 20048 4800 331264 515968 115336 42296 6519 1268 214 402 646 53872 11053 21688 3807 2524 401 160 1745 454016 93088 41120 6028 981 1249 375 3119 604 436 186 308 173 162 235 2029056 441472 195904 28336 5681 548 195 791 9518 2907 981 266 215 151 231 3272 1125 530 1449 574 328 </t>
-  </si>
-  <si>
     <t>HMDB00764</t>
   </si>
   <si>
@@ -846,12 +822,6 @@
     <t>Adipic acid</t>
   </si>
   <si>
-    <t>40 41 42 43 44 45 46 47 48 49 50 51 52 53 54 55 56 57 58 59 60 61 62 63 64 65 66 67 68 69 70 71 72 73 74 75 76 77 78 79 80 81 82 83 84 85 86 87 88 89 90 91 92 93 94 95 96 97 98 99 100 101 102 103 104 105 106 107 109 110 111 112 113 114 115 116 117 118 119 120 121 122 123 124 125 126 127 128 129 130 131 132 133 134 135 136 137 138 139 141 142 143 144 145 146 147 148 149 150 151 152 153 154 155 156 157 158 159 160 161 162 163 164 165 166 167 168 169 170 171 172 173 174 175 176 177 178 179 181 182 183 185 186 187 188 189 190 191 192 193 194 197 198 199 200 201 202 203 204 205 206 207 208 209 211 213 215 216 217 218 219 220 221 222 223 225 226 227 228 229 230 231 232 233 234 235 241 244 245 246 247 248 249 250 251 253 257 258 259 260 261 262 263 264 271 272 275 276 277 278 279 280 281 289 290 291 292 293 341 345 346 349 363 364 365 431 432 433 437 438 439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1624 25552 8193 39000 27688 147584 10253 68768 3230 2433 410 1520 1872 10673 12629 523520 72000 20552 41280 56648 17168 88184 5707 3683 528 2866 6753 66352 18904 136960 13568 11792 78072 1846784 187264 1144320 80152 53344 5324 4227 1297 19752 25312 461120 29104 26616 61008 16856 13509 20296 3821 9964 963 4582 506 2131 701 8399 10399 134848 17248 31696 8236 15080 2150 5307 639 903 8319 28376 2453504 167552 42152 5562 37288 128400 515776 53376 30920 2508 1644 153 2011 525 5436 1076 6548 13031 411136 185664 98496 68496 196288 27400 19128 2050 1011 491 4659 1466368 217152 119320 18064 49872 29872 2034688 323072 423232 53096 24776 2219 1059 9498 37264 43768 186688 60272 738048 93784 33600 6570 8877 1582 1232 292 649 283 1004 842 35184 1073152 171904 50352 9564 1363 1674 253 260 275 488 11590 524032 72736 24488 2179 11710 8934 8242 1680 937 188 354 251 6638 109936 88672 15964 30120 384064 75808 31728 4854 1041 424 192 573 59320 13077 443776 109824 43272 7028 1527 161 241 197 317 161 194 17032 4624 133504 27264 13473 2108 522 222 342 10276 3309 89280 18296 7978 972 283 167 7389 1694 1381 305 3169 3450 791 337 208 171 1390592 314624 132608 19584 3830 387 347 2217 10354 4716 1488 465 159 276 154 320 3733 1206 689 684 212 162 680 198 208 </t>
-  </si>
-  <si>
     <t>2-Hydroxybenzoic acid(salicylic acid)</t>
   </si>
   <si>
@@ -879,12 +849,6 @@
     <t xml:space="preserve">Pyroglutamic acid </t>
   </si>
   <si>
-    <t>40 41 42 43 44 45 46 47 48 49 49 51 52 53 54 55 56 57 58 59 60 61 62 63 65 66 67 68 69 70 71 72 73 74 75 76 77 78 78 80 81 82 83 84 85 86 87 88 89 90 91 92 93 95 95 96 97 98 99 100 101 102 103 104 105 106 106 107 110 111 112 113 114 115 116 117 118 119 120 121 124 126 127 128 129 131 132 133 134 135 136 137 138 139 140 141 142 143 144 145 147 148 149 150 151 151 152 153 154 156 157 158 159 160 161 162 163 166 167 168 169 170 171 172 173 174 175 175 176 177 178 182 182 183 184 185 186 187 188 189 190 191 192 193 194 196 197 198 199 200 201 202 203 207 208 209 212 213 214 215 215 216 217 218 221 221 225 226 227 228 230 231 232 233 234 238 239 240 241 242 243 243 244 245 246 247 249 251 255 256 258 259 260 261 262 263 265 266 269 271 272 272 273 274 275 281 282 290 292 297 300 322 326 333 343 346 347 347 363 398 416 465 479 511 514 518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7348 60248 39752 222464 113520 539712 39832 94648 3219 2973 1148 5458 11169 15785 23648 102632 30680 60784 158592 206784 32944 52840 3861 1953 6543 61432 42968 17768 21952 52480 32016 165760 2284544 228224 375872 23984 11754 1618 2894 10889 5194 17752 15057 65360 62576 78824 18840 6844 7467 1467 1379 1088 16055 1912 2744 7402 8752 21120 29192 54416 16712 15494 15780 2989 8217 1012 492 7718 14295 8014 77296 20360 38960 27464 5682 32440 5868 9862 850 43048 2673 17792 9385 8599 14273 58400 17800 127280 16318 11547 972 577 1194 6127 91000 39456 25840 7465 4175 2467 673024 116240 62792 9031 2887 1205 1067 1519 29392 3041792 415168 136576 12648 1732 1731 244 183 837 238 10185 3430 5698 775 4216 2695 12078 2316 2030 1175 973 217 1083 912 2994 2346 2306 5141 1051 1646 1613 7687 1821 492 238 340 278 162 1668 225 686 749 644 621 1864 820 471 540 2586 25128 4329 4295 3392 414 450 1125 186 370 2031 784 15103 343552 73688 28976 4112 536 175 525 241 1445 347 180 277 293 1385 383 805 329 442 543 1189 247424 55640 19240 3354 1154 279 249 151 240 362 564 942 9288 1851 1035 1607 1287 189 676 175 264 237 285 165 323 303 193 357 376 194 347 367 285 453 207 178 </t>
-  </si>
-  <si>
     <t>HMDB00555</t>
   </si>
   <si>
@@ -918,12 +882,6 @@
     <t>Sumiki's acid</t>
   </si>
   <si>
-    <t>40 41 42 43 44 45 46 47 48 49 50 51 52 53 54 55 56 57 58 59 60 61 62 63 64 65 66 67 68 69 70 71 72 73 74 75 76 77 78 79 80 81 82 83 84 85 86 87 88 89 90 91 92 93 94 95 96 97 98 99 101 102 103 104 105 106 108 109 110 111 112 113 115 116 117 118 119 121 122 123 124 125 126 128 131 132 133 134 135 136 137 138 139 140 141 142 143 144 145 147 148 149 150 151 152 153 154 155 156 157 158 159 160 161 162 163 164 165 166 167 168 169 170 171 172 173 174 175 176 177 178 179 180 181 182 183 184 185 186 187 188 189 190 191 192 193 194 195 197 198 199 200 201 202 203 204 205 206 207 208 209 210 211 212 213 214 215 216 217 218 221 223 224 225 226 227 228 229 230 231 231 233 237 239 240 241 242 243 244 245 246 251 253 254 255 256 257 258 259 267 269 270 271 272 273 274 275 276 277 281 284 285 286 287 288 289 290 345 359 433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1387 1694 1878 18744 12001 77720 5281 16688 985 816 3072 16025 49328 8147 1673 5828 1594 6029 11603 35680 4770 12239 1577 3244 2232 4579 51240 9912 2522 7223 3818 14617 22912 886656 76816 176576 13415 36640 21392 53464 25120 17032 2879 15706 6251 24328 7337 7105 1096 5054 904 29272 14324 7497 6527 47040 20408 10262 7335 16768 3533 1318 7547 1361 5267 34744 11004 18192 15845 81040 11051 31648 7955 2119 12659 2166 9409 9844 3304 776064 64088 19648 3670 182656 23096 4637 125160 18240 15004 1841 17096 17352 13318 4069 2612 1306 6982 1380 2208 1678848 268160 169728 19272 10455 3848 115888 22496 10054 1793 12411 2159 2864 508 987 295 2264 437 931 2354 10419 6818 799744 112856 41320 3950 6803 1203 1023 255 925 260 1353 652 5574 17952 9325 2158 2399 575 472 246 489 224 968 291 1341 389 2898 468416 71512 29288 3511 1530 622 437 372 234 158 970 265 3185 942 3502 808 1002 1168 1722 753 781 165 168 347 165 1986 683 42496 9688 4432 783 191 198 185 395 314 232 7666 4035 28160 5581 2429 351 171 715 339 1536 5268 1777 1262 315 250 1645 5693 1692160 381376 167232 25344 5038 558 164 233 180 12403 100864 25256 10351 1354 212 159 206 225 </t>
-  </si>
-  <si>
     <t>HMDB00959</t>
   </si>
   <si>
@@ -1044,12 +1002,6 @@
     <t xml:space="preserve">Pimelic acid </t>
   </si>
   <si>
-    <t>40 41 42 43 44 45 46 47 48 49 50 51 52 53 54 55 56 57 58 59 60 61 62 63 64 65 66 67 68 69 70 71 72 73 74 75 76 77 78 79 80 81 82 83 84 85 86 87 88 89 90 91 92 93 94 95 96 97 98 99 100 101 102 103 104 105 106 107 108 109 110 111 112 113 114 115 116 117 118 119 120 121 122 123 124 125 126 127 128 129 130 131 132 133 134 135 136 137 139 140 141 142 143 144 145 146 147 148 149 150 151 152 153 155 156 157 158 159 160 161 162 163 164 165 166 167 168 169 170 171 172 173 174 175 176 177 178 179 180 181 182 183 184 185 186 187 188 189 190 191 192 193 194 195 196 197 198 199 200 201 202 203 204 205 206 207 208 209 211 212 213 214 215 216 217 218 219 220 221 222 223 225 227 228 229 230 231 232 233 234 235 241 243 244 245 246 247 248 249 253 257 258 259 260 261 262 263 264 265 270 271 272 273 274 275 276 277 286 287 289 290 291 292 293 294 303 304 305 306 307 363 377 378 379 380 451 452 453 459 460 461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2623 62048 17856 47296 24592 130176 9236 61648 3001 2084 373 1160 1234 11027 7825 412544 29720 12879 28752 46360 14265 83144 5740 3495 363 2372 4461 34392 30816 484416 35016 11832 104416 1784832 182848 1235968 89056 62104 3833 168512 15221 211392 17392 170560 11104 25584 19464 10959 20376 26600 4593 7441 833 2225 1833 49688 60640 391808 30768 53704 8191 45320 9319 12754 1997 5916 1318 6805 709 1054 391 6005 4443 27464 5433 22144 228608 589888 63288 32824 2403 1577 1326 13413 159872 1485824 117048 22792 15611 483712 81688 95792 86824 192000 28952 19744 2511 73560 2887 758 5963 39744 71128 12092 71808 22888 1628160 263488 492864 66336 35304 4170 7108 2293248 333888 266048 94400 48712 32144 7942 9722 8235 1535 1170 348 708 8491 86136 81352 295104 205184 1383936 195264 62584 5752 3053 446 595 376 2641 501 1305 765 51168 485504 91520 24480 22960 9080 25000 4225 2806 403 426 10923 14868 5119 285568 42600 16138 2180 26296 443520 99744 38896 6476 1083 393 188 203 3729 186112 104024 23968 591552 129896 56216 7898 1708 226 259 325 1089 422 26592 5902 27344 11435 3910 903 203 205 28824 12418 110408 24464 14530 2355 951 172 374 327 2341 2201 41016 41920 11033 3715 621 422 7511 1805 1457 179 1890 1051 388 13245 4548 1414656 335104 139456 21992 4501 458 3845 7271 5727 1798 490 296 4266 1566 718 155 724 352 193 1128 437 168 </t>
-  </si>
-  <si>
     <t>HMDB00355</t>
   </si>
   <si>
@@ -1215,12 +1167,6 @@
     <t>Quinolinic acid</t>
   </si>
   <si>
-    <t>41 42 43 44 45 46 47 48 49 50 51 52 53 54 55 56 57 58 59 60 61 62 63 64 65 66 67 68 69 70 71 72 73 74 75 76 77 78 79 80 81 82 83 84 85 86 87 89 91 92 93 94 95 96 98 98 100 101 102 103 104 105 106 107 108 109 110 111 111 113 114 115 116 117 118 120 121 122 123 124 125 126 128 129 130 131 132 133 134 135 136 137 138 139 140 143 144 145 146 147 148 149 150 151 152 153 154 155 156 157 158 159 160 161 162 163 164 165 166 167 168 169 170 171 172 173 174 175 176 177 178 179 180 181 182 183 184 185 186 187 188 189 190 191 192 193 194 195 196 197 198 200 202 204 205 206 207 208 209 210 211 212 213 217 218 219 220 221 222 223 224 225 226 227 228 232 233 234 235 236 237 238 239 240 241 248 249 250 251 252 253 254 255 256 261 262 264 265 266 267 268 269 270 271 280 281 282 283 284 294 295 296 297 298 299 300 301 310 311 312 313 327 371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">690 831 9934 13117 57536 4120 6479 295 583 3755 2726 2284 1758 754 2993 1133 3498 4854 10356 1318 2707 484 885 1949 5150 6027 2752 1007 1611 3464 4139 17728 380864 33936 39344 7658 20096 18080 3125 1606 1860 2132 3016 2683 1840 939 1472 7037 9171 12479 8655 3335 2258 3340 1675 1527 580 902 1864 4283 4692 9698 17960 7947 7617 8598 4436 4150 4610 1069 255 3912 1535 5833 21304 31312 4221 3213 3175 1989 1459 2486 523 981 1071 17680 5663 35632 12179 13155 13806 2966 1511 515 65160 1331 838 971 4131 1160704 188224 110064 30744 6590 4204 852 829 646 759 1248 1083 742 1281 555 4361 1734 17728 44384 10647 4857 2096 865 246 301 363 351 567 278 2660 1192 12539 11179 9489 3224 2747 917 1182 318 368 300 250 269 349 798 2227 17640 313600 50528 16552 1965 533 159 152 801 380 986 1708 10116 4169 7957 1824 798 250 380 295 240 1803 11871 15438 12729 15619 3938 1310 375 155 523 275 4562 1372 4938 1783 11874 5330 3108 742 786 526 2498 2534 71080 16624 6882 1185 292 636 155 873 1961 101208 34488 33648 7329 2507 298 342 3382 2043 1592 336 1113 1670 441344 105184 42760 7495 1210 165 340 2106 452 255 152 191 </t>
-  </si>
-  <si>
     <t>HMDB00226</t>
   </si>
   <si>
@@ -1455,12 +1401,6 @@
     <t>Vanillylmandelic acid</t>
   </si>
   <si>
-    <t>41 42 43 44 45 46 47 48 49 50 51 52 53 54 55 56 57 58 59 60 61 62 63 64 65 66 67 68 69 70 71 72 73 74 75 76 77 78 79 80 81 82 83 84 85 86 87 88 89 90 91 92 93 94 95 96 97 98 99 100 101 102 103 104 105 106 107 108 109 110 111 112 113 114 115 116 117 118 119 120 121 122 123 124 125 126 127 128 129 130 131 132 133 134 135 136 137 138 139 140 140 142 143 144 145 147 148 149 150 151 152 153 154 154 155 156 157 158 159 160 161 162 163 164 165 166 167 168 169 170 171 172 173 174 175 176 177 178 179 180 181 182 183 184 186 187 188 189 190 191 192 193 194 195 196 197 198 199 199 201 202 203 204 205 206 207 208 209 210 211 212 213 215 216 217 218 219 220 221 222 223 224 225 226 227 229 231 232 233 234 235 236 237 238 239 240 241 247 248 249 250 251 252 253 254 255 256 257 261 262 263 264 265 266 267 268 269 270 271 272 275 277 278 279 280 281 282 283 284 285 286 289 291 292 293 294 295 297 298 299 300 301 302 303 307 308 309 310 311 312 313 314 321 322 323 324 325 326 327 328 329 337 338 339 340 341 342 343 344 353 354 355 356 357 358 359 366 367 368 369 370 371 372 373 374 375 376 381 382 383 384 385 386 387 397 398 399 400 401 402 403 404 405 413 414 415 416 417 418 419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">456 656 8699 13128 95672 6086 5561 235 220 322 748 470 700 189 2058 614 4048 7909 31472 2673 3838 298 1113 828 1279 2001 669 183 1011 2587 3658 18232 1500160 127992 89760 6123 8792 1891 3833 387 591 390 3227 675 2039 278 1628 1086 24008 3236 14003 3500 2166 402 1647 864 949 297 1837 350 1799 1889 9285 5659 9943 1759 6140 945 2088 489 1411 308 1014 362 7244 2065 13733 4368 14363 3252 9125 1302 1992 471 724 1683 727 767 2026 723 29176 6226 75768 12603 31952 5940 10265 1591 661 1167 848 240 1695 423 4707 405184 68928 53328 8903 10917 1832 926 268 335 1113 435 1094 347 2630 1258 16265 10849 46512 10051 24632 10574 3730 730 583 540 471 181 1333 1258 5136 4840 39128 30216 36800 12810 6573 1312 715 840 156 543 311 3270 3395 20776 53200 155328 170560 36440 9572 1756 299 217 166 340 232 1355 1737 6522 46696 50176 16784 64768 11005 4325 637 199 172 355 1265 970 7194 3522 29760 17416 265472 49664 17008 2252 493 161 585 276 4031 2833 9929 31056 59640 13893 8954 1828 524 1760 554 14654 5777 106280 43728 39240 8844 4091 665 191 270 262 2483 2844 90208 31056 398976 94520 39184 6637 1200 201 194 613 448 4717 6456 70024 22128 14387 2955 1195 271 191 776 4450 3332 5507 58832 7693824 2531840 1038528 178944 31424 3547 417 749 1990 3787 5153 11666 3228 1507 403 233 371 15331 4566 19752 14029 4749 1611 307 886 439 6550 2531 3740 1485 523 192 531 929 16172 5941 2649 716 151 185 355 2112 4425 2622 544000 179520 86032 19024 4394 693 368 218 559 499 2308 964 414 282 1180 413568 142528 68480 15082 3821 644 211 1019 117592 41920 19656 4663 1121 172 </t>
-  </si>
-  <si>
     <t>HMDB00792</t>
   </si>
   <si>
@@ -1762,6 +1702,87 @@
   </si>
   <si>
     <t>Succinate-D4 (ISTD)</t>
+  </si>
+  <si>
+    <t>mix 4</t>
+  </si>
+  <si>
+    <t>Mix 4</t>
+  </si>
+  <si>
+    <t>Quinolinic acid (2TMS)</t>
+  </si>
+  <si>
+    <t>Pyroglutamic acid (2TMS)</t>
+  </si>
+  <si>
+    <t>Mix C; Mix4</t>
+  </si>
+  <si>
+    <t>Pimelic acid (2TMS)</t>
+  </si>
+  <si>
+    <t>297, 371</t>
+  </si>
+  <si>
+    <t>40 41 42 43 44 45 46 47 48 49 51 52 53 54 55 56 57 58 59 60 61 62 63 64 65 66 67 68 69 70 71 72 73 74 75 76 77 78 79 80 81 82 83 84 85 86 87 88 89 91 92 93 95 96 97 98 99 100 101 102 103 104 105 106 107 107 108 109 110 111 112 113 114 115 116 117 118 119 120 121 122 124 126 127 128 128 129 130 131 132 133 134 135 136 136 138 139 140 141 142 143 144 144 144 145 145 145 147 148 149 150 151 152 153 154 156 157 158 159 160 161 163 164 167 168 169 170 171 171 172 173 174 175 175 177 179 182 183 184 185 186 187 188 189 190 191 192 192 195 197 198 200 201 202 204 206 207 212 213 214 215 215 216 217 218 226 228 230 231 232 233 234 234 236 241 242 243 245 247 248 252 255 257 258 259 260 261 262 265 267 273 274 275 281 283 293 323 325 327 328 339 341 343 357 369 380 396 405 407 411 429 441 445 451 468 524 540 565 580 591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3544 26008 16194 96656 48024 229696 13794 38168 2042 917 3446 3101 6746 8903 45120 14942 23400 74568 87096 10515 25448 1346 745 662 1806 18576 15610 7350 5808 20000 15483 63936 978368 96208 160512 10643 4670 774 2414 4706 4746 5125 6388 24832 25424 35232 9443 2124 1395 249 616 5890 816 5601 3959 10761 13260 21072 7263 6495 10181 604 2896 1265 1761 1832 1725 932 7695 4358 31520 8295 14084 12238 4481 11770 2072 3597 1135 12936 1933 1642 7291 3272 2718 3485 7873 1575 23416 7268 53768 10783 3558 529 468 629 2517 38360 20600 9453 2919 1109 900 946 1209 1197 1184 287360 39336 29496 3798 1365 1422 1267 12411 1336320 175296 61248 2718 702 743 234 152 599 5497 230 1868 470 287 1742 2144 5008 1300 672 515 461 515 227 1085 1171 1693 1062 639 193 2111 599 579 235 215 171 964 388 447 626 191 512 593 406 1184 11846 1448 764 1105 327 274 294 5781 138368 26912 11331 2000 610 615 328 306 615 165 347 335 475 344 186 1381 111040 21536 9409 1176 296 309 533 3017 713 534 241 177 255 367 195 175 360 449 184 254 627 359 170 166 257 167 160 385 189 151 382 250 220 282 206 284 197 </t>
+  </si>
+  <si>
+    <t>40 41 42 42 43 44 45 47 50 51 52 52 53 55 56 57 58 59 60 60 61 63 66 69 71 72 73 74 75 76 77 77 83 83 85 87 89 91 96 100 101 103 105 106 113 115 116 117 118 119 125 127 129 131 132 134 135 145 146 147 148 149 149 157 159 170 175 194 205 207 207 219 221 221 222 223 233 235 238 247 248 249 281 295 323 353 357 370 428 464 474 587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">464 1062 462 483 2257 1005 2260 770 159 1052 467 309 369 966 892 2451 363 1131 190 279 1563 357 649 170 279 441 15735 1124 8325 1064 493 308 748 228 327 196 392 267 412 227 970 788 460 338 641 154 249 702 232 298 162 512 568 433 1300 635 667 11241 2118 7084 915 838 491 346 398 288 397 193 169 364 320 765 1456 1133 237 190 512 620 242 535 320 587 647 178 455 183 177 568 158 271 156 829 </t>
+  </si>
+  <si>
+    <t>40 41 42 43 44 45 46 47 48 49 50 51 52 53 54 55 56 57 58 59 60 61 62 63 64 65 66 67 68 69 70 71 72 73 74 75 76 77 78 79 81 82 82 83 84 85 86 87 88 89 91 92 93 94 95 96 97 99 100 101 101 102 103 105 106 107 109 111 113 115 115 117 118 119 120 121 122 123 125 127 131 133 135 136 137 138 139 140 141 145 147 148 149 150 151 152 153 157 158 162 163 164 165 166 172 173 175 177 179 180 181 182 188 189 190 191 191 193 194 195 196 197 207 208 209 211 217 221 224 248 265 267 280 281 282 283 284 297 315 356 358 390 394 400 430 488 493 564 566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2085 3692 11994 66656 18816 188928 17192 36984 2639 6252 79336 253504 10653 16357 3402 11295 5499 9543 14797 53784 10364 12022 5433 6192 4276 8137 3332 3272 1166 2563 2425 2432 9714 69440 54256 64912 63216 753024 52512 6040 1377 916 909 3943 509 3214 450 831 602 24000 14096 2558 4032 406 3577 246 632 479 630 769 1252 635 3715 826176 64312 8098 1912 305 213 340 576 669 352 12579 4046 13040 2314 452 199 294 1488 3564 541568 79856 19224 823 584 183 331 179 1154 527 5053 2725 1239 284 299 324 420 454 4582 3154 905 427 365 172 1741 406 988544 154752 46088 5264 183 338 557 378 179 14732 71744 14119 3005 590 608 883 232 713 214 1523 205 273 178 591 155 842 782 360 304 169 360 285 204 221 439 262 289 391 368 535 244 </t>
+  </si>
+  <si>
+    <t>40 41 42 43 44 45 46 47 48 49 50 51 52 53 55 56 57 58 59 60 61 62 63 64 65 66 67 68 69 70 71 72 73 74 75 76 77 78 79 81 82 83 85 86 87 88 89 90 91 92 93 94 94 95 96 97 99 100 101 102 103 104 105 107 109 111 113 115 116 117 118 119 120 121 122 123 125 126 127 129 130 131 132 133 134 135 136 137 141 143 144 145 147 148 149 150 151 152 153 155 156 157 158 159 160 161 162 163 164 167 169 170 171 172 173 174 175 176 177 179 181 184 185 186 187 188 189 190 191 192 193 193 195 197 199 201 204 205 206 207 207 215 216 217 218 219 220 221 222 226 228 232 233 234 235 245 246 246 247 251 257 259 261 262 263 264 265 268 276 277 278 283 289 292 295 306 309 326 349 357 359 411 414 417 437 478 484 488 551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16210 207616 73536 173568 88024 540608 45032 195392 9133 5934 519 5600 6925 12315 340800 16261 35368 93440 133120 35784 123112 8788 5548 621 1120 11220 6569 12506 327552 98328 22984 114016 2087424 227264 1192960 88392 52248 3544 1648 1122 677 11865 31784 11119 9683 7387 12179 2123 1287 216 725 231 575 1179 6146 10805 86456 14266 23080 7158 17448 2709 8374 787 431 2105 8360 28320 14204 53856 5785 10471 730 1435 158 31480 5156 1069 14585 194368 35576 52448 9894 117408 14814 12510 976 272 1455 330688 45832 29384 2723328 429312 249792 28184 8193 958 1031 2062 696 17400 33912 18096 4076 1891 1869 2701 808 196 156 6177 5562 1763 2425 350 8228 2053 1580 184 205 161 1261 77664 52768 9456 5485 16228 5283 1814 380 408 154 526 652 2764 57424 9797 3817 1298 596 548 1778 282176 59776 26408 4138 634 275 244 320 83488 18832 5846 1451 519 354 155 961 312 208 1198 303360 64272 28792 4005 1210 201 1689 562 522 155 269 200 239 549 375 174 227 152 365 218 250 336 279 192 189 158 331 </t>
+  </si>
+  <si>
+    <t>40 41 42 43 44 45 46 47 48 49 50 51 52 53 55 56 57 58 59 60 61 62 63 64 65 66 67 68 69 70 71 72 73 74 75 76 77 78 79 81 82 83 84 85 86 87 88 89 90 91 93 94 95 96 97 98 99 101 102 103 104 105 106 107 109 111 112 113 115 116 117 118 119 120 121 121 123 125 126 127 129 130 131 132 133 134 135 136 137 139 141 142 143 144 145 147 148 149 150 151 152 153 155 158 159 160 161 162 163 164 165 166 168 169 170 171 172 173 174 175 175 177 179 186 187 188 189 190 191 192 192 193 199 201 202 203 204 205 206 207 208 210 215 216 217 218 219 220 221 222 223 224 231 231 233 234 235 236 237 243 245 246 246 249 252 253 256 257 258 259 261 262 263 264 265 267 275 276 277 280 281 283 286 292 298 309 323 324 355 382 441 468 547 554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13934 118240 117680 287680 117080 724032 51896 326016 15434 9740 1427 5180 4164 18904 1068032 46096 55656 121344 168064 66928 214976 14216 9900 555 1278 7196 4964 33136 58696 29896 31144 295488 2468864 310784 2102272 149376 87264 4477 1454 1025 875 6722 4515 129264 23432 20600 70672 34240 5351 2783 554 473 10061 6190 250688 23568 46856 141888 18664 25816 2218 9425 1201 1240 2461 10865 1031 12187 57792 341632 142144 24768 17928 2926 947 447 38376 3641 1995 46904 661056 208320 99424 24472 189120 26696 23184 2501 835 462 1887 9260 48704 7264 46872 2611712 436288 324864 39096 13436 905 276 266 591424 161536 35664 11576 20552 12427 3418 1745 150 213 1539 1265 19600 2119 4013 552 790 655 948 167 136832 95776 15002 52312 9057 10311 1763 377 413 246 4105 2272 142720 228992 47696 18424 6069 725 237 347 450 24328 4261 5880 1538 536 217 2434 312 679 737 142080 28472 13679 1168 537 491 1415 307 235 458 494 398 326 237 486 574 596800 130256 58488 7843 1978 400 412 1411 750 166 350 429 410 262 383 566 484 376 161 164 496 364 214 155 </t>
+  </si>
+  <si>
+    <t>40 41 42 43 44 45 46 47 48 49 50 51 52 53 55 56 57 58 59 60 61 62 63 64 65 66 67 68 69 70 71 73 74 75 76 77 78 79 80 81 83 84 85 86 87 88 89 90 91 92 93 94 95 96 97 98 99 100 101 102 103 104 105 106 107 108 109 111 112 113 114 115 116 117 118 119 120 121 122 123 125 126 127 129 130 131 132 133 134 135 136 137 138 139 141 142 143 144 145 147 148 149 150 151 152 153 154 155 156 157 158 159 160 161 162 163 164 165 166 167 168 169 172 173 174 175 176 177 178 179 180 180 180 181 182 183 185 186 187 188 189 190 191 192 192 193 194 194 195 196 196 197 198 199 200 201 202 203 204 205 206 207 208 209 209 211 212 213 215 217 218 219 220 221 222 222 223 224 225 225 227 229 231 232 233 234 235 236 237 238 240 240 241 242 243 244 245 247 248 249 250 251 252 253 253 255 257 258 259 259 260 261 262 263 264 264 266 267 269 271 271 272 275 276 277 278 279 280 281 282 283 284 285 287 289 290 291 292 293 297 298 302 303 307 307 309 309 313 314 315 318 319 324 326 328 330 331 332 332 333 338 338 340 341 341 342 342 345 347 349 350 352 353 353 355 355 356 359 361 361 363 364 364 366 368 369 369 370 372 374 375 380 383 387 389 390 390 392 393 395 397 398 399 400 401 402 403 404 406 406 407 407 408 411 413 414 418 419 422 425 426 430 438 439 440 441 441 443 445 449 451 453 453 454 455 460 463 465 466 466 468 470 472 474 477 478 480 481 485 488 490 492 493 496 498 500 504 505 505 506 509 513 515 516 518 519 521 526 527 529 532 541 542 543 545 546 548 551 554 555 557 558 558 561 562 563 564 566 568 569 570 571 574 575 578 579 584 585 587 589 591 592 593 594 598 599 600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52824 609856 290432 1241088 620032 3788288 303040 1922560 87728 62336 11607 47296 39920 321536 5481472 914816 364224 880960 1262592 404032 1609216 106592 62264 7023 37328 60248 749568 182528 1098752 171072 189184 7311360 2304000 7220224 1289728 773056 72736 49480 17440 227456 3601408 230592 332352 628992 205568 147520 189120 25368 65568 6793 30952 3232 23848 8786 91240 91368 905280 119472 339904 82536 128608 21728 51368 6653 7203 3512 53104 6738432 836416 247936 44496 334912 867840 2637312 273280 191680 16175 9975 1638 20448 58112 9768 38056 2870784 901248 572992 300992 1204224 174400 121568 13833 5535 1719 36344 4775936 836672 492736 70176 209088 6194176 1493504 1807872 226816 97072 8089 6253 47216 183552 172800 840768 238912 2554368 307648 111344 19072 34240 5174 6271 1256 2246 2151 4702 3897344 649920 202816 38184 4530 5248 1348 1467 912 779 679 870 2931 36440 1051648 144640 60200 4802 38112 35360 24528 3560 3884 2398 352 345 687 605 566 819 1328 25640 278016 250240 47224 119912 1182208 220160 94176 15456 2099 1362 980 630 1051 2410 145024 1501696 368384 141760 29008 4326 619 430 402 591 725 267 1108 42152 372352 69584 40568 5536 754 1192 958 533 182 567 315 531 1322 515 27656 233472 47456 21032 3115 1203 540 521 415 724 16736 4871 2490 2485 1006 5752 7498 2158 603 355 981 478 196 631 705 1638 3253760 753728 309568 41632 9863 719 988 346 715 637 435 530 5377 19160 5894 2030 839 234 194 553 182 164 578 652 355 611 378 374 747 196 380 275 346 377 466 389 958 920 473 263 295 1569 477 431 544 367 309 302 306 357 227 229 182 224 626 204 272 351 3147 1640 1473 832 150 524 165 304 314 209 370 530 202 263 389 280 313 176 474 317 1196 160 209 286 610 550 536 535 583 432 214 208 167 777 306 152 171 230 334 192 299 324 229 473 190 225 534 267 426 267 163 456 280 228 373 363 461 358 271 376 174 354 460 335 286 463 163 467 362 342 954 432 376 435 156 400 255 160 180 576 606 494 478 274 501 497 254 329 287 255 422 541 184 153 265 186 152 218 317 376 269 496 615 381 438 291 396 274 308 648 440 442 392 462 498 261 385 238 412 516 220 600 305 167 438 159 384 </t>
+  </si>
+  <si>
+    <t>40 41 42 43 44 45 46 47 48 49 50 51 52 53 54 55 56 57 58 59 60 61 62 63 64 65 66 67 68 69 70 71 73 74 75 76 77 78 79 80 81 82 83 84 85 86 87 88 89 90 91 92 93 94 95 96 97 98 99 101 102 103 104 105 106 107 108 109 110 111 112 113 114 115 116 117 118 119 120 121 123 124 125 126 128 131 133 134 135 136 137 138 139 140 141 142 143 144 145 147 148 149 150 151 152 153 154 155 156 157 158 159 160 161 162 163 164 165 166 167 169 170 171 172 173 174 174 175 176 177 178 179 180 181 182 183 184 185 186 187 189 190 191 191 193 194 195 197 198 199 200 201 202 203 204 206 209 210 210 211 211 212 213 214 215 216 217 218 219 223 223 224 225 227 228 229 230 231 233 237 239 240 241 242 243 244 245 245 246 247 249 251 254 255 255 256 257 258 259 259 267 269 271 272 273 274 275 277 278 280 283 285 286 287 288 289 290 297 316 322 348 360 377 417 527 528 597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8374 17008 30240 233472 89432 624384 43416 153280 9809 6701 37264 202304 439488 75600 14358 57024 12050 34440 106392 320960 40184 91720 9758 19240 10151 44560 127408 55408 16105 42224 19184 42520 2568704 242752 747712 52880 131648 55456 257152 100576 56208 11362 78112 14601 111456 16241 21448 4240 18936 2356 59080 18096 20760 19864 178432 65744 51536 18856 52592 19984 4983 33400 5122 16576 35712 14352 27624 69776 52064 268096 29288 49464 7287 37096 13997 35112 5537 26280 6947 12987 786624 72112 53088 9574 150656 58592 316224 47936 42264 3887 35544 35232 33360 10840 6325 3191 13596 2514 5584 2936320 455424 281728 25904 18848 7469 227392 45312 21360 4730 24488 4909 5743 628 2602 699 3260 440 2555 2875 16255 817088 112648 48456 3693 9897 1189 1113 1206 240 1643 1147 1897 979 11742 30200 11506 3809 3274 868 383 329 426 419 693 1851 624 3968 551872 88952 39440 4393 2052 1107 478 378 265 6374 840 880 6117 860 480 2337 1594 2424 1867 849 319 359 271 410 360 1148 31416 7415 3661 350 280 343 371 173 194 8883 3264 27448 5442 2665 1954 480 218 433 216 644 1735 1797 5238 1605 781 560 582 433 2203 1351680 296064 129400 18832 2412 230 424 234 283 8582 58784 13140 4454 381 193 316 308 186 228 324 385 189 219 218 201 </t>
+  </si>
+  <si>
+    <t>40 41 42 43 44 45 46 47 48 49 50 51 52 53 55 56 57 58 59 60 61 62 63 64 65 66 67 68 69 70 71 72 73 74 75 76 77 79 80 81 82 83 84 85 86 87 88 89 90 91 92 93 95 96 97 98 99 100 101 102 103 104 105 106 107 108 109 110 111 112 113 115 116 117 118 119 120 121 122 123 124 125 126 127 129 130 131 132 133 134 135 136 137 139 140 141 142 143 144 145 147 148 149 150 151 152 153 155 156 157 158 159 160 161 162 163 164 165 166 167 169 170 171 172 173 174 175 176 177 178 179 180 181 182 183 184 185 186 187 188 189 190 191 192 193 194 196 197 198 199 200 201 203 204 205 206 207 208 209 210 214 215 217 218 219 220 221 222 224 225 226 227 229 230 231 232 233 234 237 241 243 244 245 246 247 248 249 253 254 256 257 257 258 259 260 261 262 263 264 266 267 267 268 271 272 272 273 273 274 275 276 278 280 281 284 286 289 290 291 292 293 293 294 295 295 297 298 299 301 303 304 305 306 309 311 315 315 330 331 332 334 335 337 341 348 349 351 355 359 361 369 372 377 382 384 400 402 403 406 406 417 428 433 438 459 460 462 465 479 480 485 490 497 512 517 528 532 548 551 561 563 578 583 584 589 592 598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36248 583232 222272 512128 231808 1445888 110416 690752 36184 20000 3526 8993 6747 103480 1780224 128960 107248 263488 406528 138112 572096 42072 24120 1841 21416 16078 158656 127208 1703424 141376 69960 565376 5544960 884160 5577728 525952 311680 492800 39264 566208 40760 321088 25344 111224 72176 52448 102392 82064 13828 16608 3044 7442 114384 123304 693824 71568 192000 33048 201088 31856 39768 5521 14649 2122 12320 1825 1983 2827 19240 7404 56624 69104 563456 935232 110224 66400 5347 4620 2995 18272 203712 1876480 148608 35504 1321472 197824 191616 110752 364544 49328 32064 3863 63528 8456 2862 9481 65960 115888 25712 80968 2226176 347968 626048 83568 53704 6848 10172 2165760 326656 273088 121752 51808 33696 8541 10396 5853 1885 784 597 2013 101264 91896 370560 194176 1305088 184832 66400 4625 4798 1403 756 696 3029 706 1307 904 51656 535360 100680 27936 26968 10387 24136 4449 2287 151 9874 8036 5813 196544 27952 9282 30360 374784 89976 42608 4668 1077 457 319 131200 82232 580544 124040 55680 10058 2654 450 450 388 426 804 13570 4225 23160 9574 1978 1224 488 157 22184 8659 80568 17448 8861 1264 548 414 261 304 727 580 853 1841 1997 25072 24168 6593 3473 264 181 325 1077 5194 868 502 655 885 726 918 1579 357 380 591 604 7867 927936 204032 93296 15116 1556 1478 805 315 505 241 547 385 189 1268 2479 967 513 297 226 254 307 279 161 420 315 448 611 213 600 343 160 668 514 599 339 482 262 254 189 441 164 198 261 313 467 180 160 196 197 330 291 376 606 342 316 280 555 182 527 409 230 255 446 349 388 623 177 736 256 330 347 </t>
+  </si>
+  <si>
+    <t>40 41 42 43 44 45 46 47 48 49 50 51 52 53 54 55 56 57 58 59 60 61 62 63 64 65 66 67 68 69 70 71 72 73 74 75 76 77 78 79 80 81 82 83 84 85 86 87 89 91 92 93 94 95 96 97 98 99 100 101 102 103 104 105 106 107 108 109 110 111 111 113 114 115 116 117 118 120 121 122 123 124 125 125 126 126 128 129 130 131 132 133 134 135 136 137 138 139 140 143 144 145 147 148 149 150 151 152 153 154 155 156 157 158 159 160 161 162 164 165 166 167 168 169 170 171 172 172 172 173 174 175 176 177 178 179 180 181 182 183 184 185 185 187 188 188 189 190 190 191 192 193 194 195 196 197 198 198 199 200 202 203 204 206 207 208 209 210 211 212 213 218 218 219 220 221 222 223 224 225 226 227 229 231 232 233 234 235 236 237 238 239 240 241 242 244 246 248 249 250 251 252 253 254 255 256 257 262 263 264 266 267 268 269 270 271 277 278 279 280 281 282 283 284 285 286 287 289 293 294 296 297 298 299 300 301 305 307 309 310 310 311 312 313 313 321 328 334 341 346 370 379 384 466 492 534 558 563 576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5376 12601 39560 388608 199168 1198592 83936 164992 11574 12611 109864 101632 43208 63664 28472 78512 25344 79424 112112 256384 40184 66120 9714 21952 33056 117904 67984 63544 22144 23616 52112 57288 221632 3802112 365440 518848 177728 360768 244928 54752 40304 38528 31616 46800 60896 27872 14863 20320 55888 104632 209600 123280 61504 28184 25464 29240 13962 11035 9414 10622 27320 51176 69120 91440 172736 156032 157888 123104 46352 26728 23448 9146 2982 59960 13128 46960 124512 347264 46560 50528 38464 20016 5509 5393 9522 9203 11667 7582 10512 124088 51832 261504 127776 130912 229568 36584 18328 3921 233216 9765 9697 5755 4562432 846720 478144 193920 41376 57648 10686 6386 4531 4708 7600 11741 3524 9374 3503 55848 266240 248448 63352 33488 14067 3484 1474 1670 793 750 746 1347 2150 3531 14902 6067 74208 82264 65968 19512 18576 5861 8260 1255 472 277 619 710 863 1771 1719 2211 10140 105392 1280000 207360 70424 6540 1197 349 319 198 269 767 6578 5144 3812 52824 21336 47968 9911 5446 1141 1213 1361 1146 4926 38224 71064 64488 94776 19888 6439 2122 181 154 1602 773 16088 4435 21856 7815 57400 20464 8974 1226 2092 341 269 2356 855 12207 16323 323904 71032 32888 4188 1810 329 263 337 3634 374080 137024 117216 31272 9494 1573 361 411 586 280 10339 7348 3722 2019 207 183 353 273 495 3749 1337344 301952 112816 19528 3101 293 165 1395 466 456 482 3273 1357 908 645 335 282 180 406 519 175 488 454 224 412 392 178 298 244 </t>
+  </si>
+  <si>
+    <t>41 43 44 45 46 47 48 49 50 51 52 53 55 56 57 58 59 60 61 62 63 64 65 66 67 68 69 70 71 73 74 75 76 77 78 79 80 81 83 84 85 86 87 89 90 91 92 93 94 95 96 97 98 99 100 101 102 103 104 105 106 107 108 109 110 111 112 113 115 116 117 118 119 120 121 122 123 124 124 125 125 126 127 128 129 129 131 133 134 135 136 137 138 139 140 140 141 142 143 144 145 147 148 149 150 151 152 153 154 155 157 157 159 160 161 162 163 164 165 166 167 168 169 170 171 173 174 175 176 177 178 179 180 181 182 183 185 185 187 187 189 190 191 192 193 194 195 196 197 198 199 201 201 203 204 205 206 207 208 209 210 211 213 213 216 216 216 217 218 219 220 221 223 224 225 226 227 228 231 232 233 234 235 236 237 238 239 240 241 242 246 247 248 249 251 252 253 254 255 256 258 259 261 263 264 265 266 267 268 269 270 271 273 277 278 279 281 282 283 284 285 286 289 290 291 292 293 295 297 298 299 300 301 302 303 307 308 309 310 311 312 313 314 314 316 317 321 322 323 324 325 326 327 328 330 331 337 338 339 340 341 342 343 347 353 354 355 356 357 358 365 369 371 372 373 374 375 376 377 381 383 385 386 387 394 397 398 399 400 401 402 403 404 414 415 416 417 418 421 429 432 433 443 445 446 449 464 472 474 507 535 545 564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2993 131840 117184 783936 50128 44168 2186 477 3414 5366 7652 7692 22840 5300 30528 80040 191616 17240 29776 4439 7963 5350 7856 27688 6297 1060 7044 17408 25960 4673024 439616 332032 27248 40752 6038 24080 1929 3324 20520 2535 9346 1360 7139 81928 12490 51008 15740 8352 1524 7167 3872 3686 1855 7184 1196 6256 6712 26800 15651 34248 7836 26648 5307 10777 2784 4080 1130 3288 24624 7363 47784 10916 43904 12153 24576 6129 9126 1633 601 1927 1972 6363 3085 2931 3834 2980 64096 175232 23800 99272 23024 53560 5887 2704 2875 1336 658 673 3678 1072 7865 612224 105632 96536 17440 32872 5361 4629 1248 1424 2555 512 6644 1155 35280 27784 122608 29368 71200 30920 7902 2999 1806 685 531 2502 2617 11536 7350 80648 59256 93216 27832 13761 3382 1029 444 410 1401 1570 7398 5694 33416 88568 374208 353600 75184 17872 4868 810 416 1274 475 2632 3188 15240 56728 76912 24056 113928 17040 9347 281 254 849 887 865 1716 1129 11981 4807 40040 256000 52736 21832 2333 531 271 1383 950 6421 3130 15490 30168 110008 26928 19168 3552 917 753 544 1652 654 17456 255360 97672 80008 16480 9847 1893 166 289 160 3922 2596 81520 35296 349824 81088 39688 5953 427 385 1131 499 5113 101336 34112 16162 5722 1965 447 206 178 1146 4448 2900 49616 5081600 1516544 601856 105200 17456 1495 270 1160 1365 3105 4847 23360 7021 3092 410 228 404 229 167 690 7238 3602 11529 18800 6740 2100 322 153 226 561 4121 930 1669 904 314 386 784 323 9951 3365 1242 393 208 2145 267520 87200 39816 8695 1790 651 288 152 639 1175 229 288 272 160 401 155648 46752 19192 5106 1122 435 32000 8840 4005 1136 232 308 208 192 258 265 194 177 278 494 351 227 297 166 336 221 </t>
   </si>
 </sst>
 </file>
@@ -1811,7 +1832,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1832,12 +1853,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1845,6 +1860,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1858,7 +1885,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1922,8 +1949,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1932,19 +2005,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="109">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1976,6 +2051,29 @@
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2007,6 +2105,29 @@
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2338,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F123" sqref="F123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2405,13 +2526,13 @@
       <c r="E2">
         <v>9.2100000000000009</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>1043.71</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>232</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>204</v>
       </c>
       <c r="I2">
@@ -2446,7 +2567,7 @@
       <c r="E3">
         <v>9.61</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>1070.6600000000001</v>
       </c>
       <c r="G3">
@@ -2484,7 +2605,7 @@
       <c r="E4">
         <v>9.44</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>1075</v>
       </c>
       <c r="G4">
@@ -2510,38 +2631,38 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C5" t="s">
-        <v>573</v>
-      </c>
-      <c r="D5" t="s">
-        <v>574</v>
-      </c>
-      <c r="E5">
+      <c r="B5" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="E5" s="16">
         <v>10</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="9">
         <v>1083.2460000000001</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>205</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>177</v>
       </c>
       <c r="J5" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="K5" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="L5" t="s">
         <v>23</v>
       </c>
       <c r="M5" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1">
@@ -2560,7 +2681,7 @@
       <c r="E6">
         <v>9.5299999999999994</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>1090</v>
       </c>
       <c r="G6">
@@ -2598,7 +2719,7 @@
       <c r="E7" s="1">
         <v>10.92</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>1115.2719999999999</v>
       </c>
       <c r="G7" s="2">
@@ -2626,7 +2747,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="C8" t="s">
         <v>40</v>
@@ -2637,7 +2758,7 @@
       <c r="E8">
         <v>11.186</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>1124.0219999999999</v>
       </c>
       <c r="G8">
@@ -2664,7 +2785,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
@@ -2675,7 +2796,7 @@
       <c r="E9">
         <v>11.186</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>1124.0239999999999</v>
       </c>
       <c r="G9" s="3">
@@ -2685,10 +2806,10 @@
         <v>233</v>
       </c>
       <c r="J9" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="K9" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="L9" t="s">
         <v>23</v>
@@ -2713,7 +2834,7 @@
       <c r="E10">
         <v>11.23</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>1126.05</v>
       </c>
       <c r="G10">
@@ -2751,7 +2872,7 @@
       <c r="E11">
         <v>11.72</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>1141.73</v>
       </c>
       <c r="G11">
@@ -2775,75 +2896,78 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12">
-        <v>11.91</v>
-      </c>
-      <c r="F12" s="10">
-        <v>1148.8</v>
-      </c>
-      <c r="G12">
-        <v>231</v>
-      </c>
-      <c r="H12">
-        <v>157</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="16">
+        <v>11.79</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1143.152</v>
+      </c>
+      <c r="G12" s="1">
+        <v>145</v>
+      </c>
+      <c r="H12" s="1">
+        <v>219</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
+        <v>570</v>
       </c>
       <c r="K12" t="s">
-        <v>59</v>
+        <v>571</v>
       </c>
       <c r="L12" t="s">
         <v>23</v>
       </c>
       <c r="M12" t="s">
-        <v>55</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E13">
-        <v>11.79</v>
-      </c>
-      <c r="F13" s="10">
-        <v>1149</v>
+        <v>11.91</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1148.8</v>
       </c>
       <c r="G13">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="H13">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="J13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L13" t="s">
-        <v>64</v>
+        <v>23</v>
+      </c>
+      <c r="M13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2851,18 +2975,18 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E14">
         <v>11.9</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>1149.02</v>
       </c>
       <c r="G14">
@@ -2872,16 +2996,16 @@
         <v>219</v>
       </c>
       <c r="J14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" t="s">
         <v>67</v>
-      </c>
-      <c r="K14" t="s">
-        <v>68</v>
-      </c>
-      <c r="L14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -2900,7 +3024,7 @@
       <c r="E15">
         <v>12.03</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>1153.452</v>
       </c>
       <c r="G15">
@@ -2910,13 +3034,13 @@
         <v>186</v>
       </c>
       <c r="J15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" t="s">
         <v>70</v>
-      </c>
-      <c r="K15" t="s">
-        <v>71</v>
-      </c>
-      <c r="L15" t="s">
-        <v>72</v>
       </c>
       <c r="M15" t="s">
         <v>39</v>
@@ -2927,18 +3051,18 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E16">
         <v>12.17</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>1157.8399999999999</v>
       </c>
       <c r="G16">
@@ -2948,16 +3072,16 @@
         <v>177</v>
       </c>
       <c r="J16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" t="s">
         <v>75</v>
-      </c>
-      <c r="K16" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2965,18 +3089,18 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E17">
         <v>12.29</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>1161.3599999999999</v>
       </c>
       <c r="G17">
@@ -2986,10 +3110,10 @@
         <v>174</v>
       </c>
       <c r="J17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L17" t="s">
         <v>23</v>
@@ -3003,18 +3127,18 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E18">
         <v>12.59</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>1173.3399999999999</v>
       </c>
       <c r="G18">
@@ -3027,10 +3151,10 @@
         <v>83</v>
       </c>
       <c r="J18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
@@ -3041,18 +3165,18 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E19">
         <v>12.82</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>1178.5999999999999</v>
       </c>
       <c r="G19">
@@ -3062,10 +3186,10 @@
         <v>219</v>
       </c>
       <c r="J19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L19" t="s">
         <v>23</v>
@@ -3079,18 +3203,18 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E20">
         <v>13.16</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>1189.07</v>
       </c>
       <c r="G20">
@@ -3100,10 +3224,10 @@
         <v>232</v>
       </c>
       <c r="J20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L20" t="s">
         <v>23</v>
@@ -3117,18 +3241,18 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E21">
         <v>13.27</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>1192.3</v>
       </c>
       <c r="G21">
@@ -3138,10 +3262,10 @@
         <v>274</v>
       </c>
       <c r="J21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L21" t="s">
         <v>23</v>
@@ -3155,40 +3279,40 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" t="s">
         <v>98</v>
-      </c>
-      <c r="C22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" t="s">
-        <v>100</v>
       </c>
       <c r="E22">
         <v>13.75</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>1209.5029999999999</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>218</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <v>247</v>
       </c>
       <c r="J22" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" t="s">
+        <v>62</v>
+      </c>
+      <c r="M22" t="s">
         <v>101</v>
       </c>
-      <c r="K22" t="s">
+      <c r="N22" t="s">
         <v>102</v>
-      </c>
-      <c r="L22" t="s">
-        <v>64</v>
-      </c>
-      <c r="M22" t="s">
-        <v>103</v>
-      </c>
-      <c r="N22" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -3196,40 +3320,40 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E23">
         <v>13.92</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <v>1216.008</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <v>218</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <v>247</v>
       </c>
       <c r="J23" t="s">
+        <v>104</v>
+      </c>
+      <c r="K23" t="s">
+        <v>105</v>
+      </c>
+      <c r="L23" t="s">
         <v>106</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="s">
         <v>107</v>
       </c>
-      <c r="L23" t="s">
-        <v>108</v>
-      </c>
-      <c r="M23" t="s">
-        <v>109</v>
-      </c>
       <c r="N23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -3237,18 +3361,18 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E24">
         <v>13.85</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <v>1216.28</v>
       </c>
       <c r="G24">
@@ -3258,10 +3382,10 @@
         <v>248</v>
       </c>
       <c r="J24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L24" t="s">
         <v>29</v>
@@ -3272,18 +3396,18 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E25">
         <v>13.95</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <v>1220.1400000000001</v>
       </c>
       <c r="G25">
@@ -3296,13 +3420,13 @@
         <v>24</v>
       </c>
       <c r="J25" t="s">
+        <v>114</v>
+      </c>
+      <c r="K25" t="s">
+        <v>115</v>
+      </c>
+      <c r="L25" t="s">
         <v>116</v>
-      </c>
-      <c r="K25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L25" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -3310,18 +3434,18 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E26">
         <v>14.16</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <v>1228.29</v>
       </c>
       <c r="G26">
@@ -3331,10 +3455,10 @@
         <v>218</v>
       </c>
       <c r="J26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L26" t="s">
         <v>17</v>
@@ -3345,31 +3469,31 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E27">
         <v>14.55</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <v>1243.93</v>
       </c>
       <c r="J27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L27" t="s">
         <v>23</v>
       </c>
       <c r="M27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -3377,18 +3501,18 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E28">
         <v>14.62</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="9">
         <v>1244.02</v>
       </c>
       <c r="G28">
@@ -3398,54 +3522,57 @@
         <v>177</v>
       </c>
       <c r="J28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L28" t="s">
         <v>23</v>
       </c>
       <c r="M28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" t="s">
-        <v>132</v>
-      </c>
-      <c r="E29">
-        <v>14.74</v>
-      </c>
-      <c r="F29" s="10">
-        <v>1251.25</v>
+      <c r="B29" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="16">
+        <v>14.851000000000001</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1252.327</v>
       </c>
       <c r="G29">
         <v>179</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="14">
+        <v>194</v>
+      </c>
+      <c r="I29">
         <v>105</v>
       </c>
-      <c r="I29">
-        <v>60</v>
-      </c>
       <c r="J29" t="s">
-        <v>133</v>
+        <v>572</v>
       </c>
       <c r="K29" t="s">
-        <v>134</v>
+        <v>573</v>
       </c>
       <c r="L29" t="s">
-        <v>64</v>
+        <v>23</v>
+      </c>
+      <c r="M29" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -3453,18 +3580,18 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D30" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E30">
         <v>14.87</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="9">
         <v>1253.06</v>
       </c>
       <c r="G30">
@@ -3474,16 +3601,16 @@
         <v>261</v>
       </c>
       <c r="J30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K30" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L30" t="s">
         <v>23</v>
       </c>
       <c r="M30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -3491,18 +3618,18 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" t="s">
         <v>135</v>
       </c>
-      <c r="C31" t="s">
-        <v>139</v>
-      </c>
       <c r="D31" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E31">
         <v>14.95</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="9">
         <v>1256.2</v>
       </c>
       <c r="G31">
@@ -3512,16 +3639,16 @@
         <v>261</v>
       </c>
       <c r="J31" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K31" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L31" t="s">
         <v>23</v>
       </c>
       <c r="M31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -3529,18 +3656,18 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D32" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E32">
         <v>15.82</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="9">
         <v>1292.1400000000001</v>
       </c>
       <c r="G32">
@@ -3550,10 +3677,10 @@
         <v>261</v>
       </c>
       <c r="J32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K32" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L32" t="s">
         <v>34</v>
@@ -3564,18 +3691,18 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C33" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E33" s="4">
         <v>16.07</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="11">
         <v>1313.26</v>
       </c>
       <c r="G33">
@@ -3588,16 +3715,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K33" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M33" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -3605,18 +3732,18 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D34" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E34">
         <v>16.5</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="9">
         <v>1316.17</v>
       </c>
       <c r="G34">
@@ -3626,10 +3753,10 @@
         <v>170</v>
       </c>
       <c r="J34" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L34" t="s">
         <v>23</v>
@@ -3643,18 +3770,18 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C35" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="D35" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="E35">
         <v>16.8</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="9">
         <v>1321.56</v>
       </c>
       <c r="G35">
@@ -3667,10 +3794,10 @@
         <v>4</v>
       </c>
       <c r="J35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
@@ -3681,18 +3808,18 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D36" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E36">
         <v>16.600000000000001</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="9">
         <v>1323.54</v>
       </c>
       <c r="G36">
@@ -3705,10 +3832,10 @@
         <v>5</v>
       </c>
       <c r="J36" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K36" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L36" t="s">
         <v>17</v>
@@ -3718,20 +3845,20 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>163</v>
-      </c>
-      <c r="C37" t="s">
-        <v>164</v>
-      </c>
-      <c r="D37" t="s">
-        <v>164</v>
-      </c>
-      <c r="E37">
-        <v>16.920000000000002</v>
-      </c>
-      <c r="F37" s="10">
-        <v>1337.82</v>
+      <c r="B37" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E37" s="16">
+        <v>17</v>
+      </c>
+      <c r="F37" s="9">
+        <v>1337.8209999999999</v>
       </c>
       <c r="G37">
         <v>261</v>
@@ -3739,17 +3866,17 @@
       <c r="H37">
         <v>217</v>
       </c>
-      <c r="I37">
-        <v>65</v>
-      </c>
       <c r="J37" t="s">
-        <v>165</v>
+        <v>574</v>
       </c>
       <c r="K37" t="s">
-        <v>166</v>
+        <v>575</v>
       </c>
       <c r="L37" t="s">
-        <v>167</v>
+        <v>23</v>
+      </c>
+      <c r="M37" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -3757,18 +3884,18 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C38" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D38" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E38">
         <v>17.27</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="9">
         <v>1349.65</v>
       </c>
       <c r="G38">
@@ -3778,10 +3905,10 @@
         <v>189</v>
       </c>
       <c r="J38" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K38" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L38" t="s">
         <v>23</v>
@@ -3795,18 +3922,18 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C39" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D39" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E39">
         <v>17.329999999999998</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="9">
         <v>1352.1</v>
       </c>
       <c r="G39">
@@ -3816,10 +3943,10 @@
         <v>255</v>
       </c>
       <c r="J39" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K39" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L39" t="s">
         <v>23</v>
@@ -3833,18 +3960,18 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C40" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D40" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E40">
         <v>17.407</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="9">
         <v>1355.9</v>
       </c>
       <c r="G40">
@@ -3854,10 +3981,10 @@
         <v>135</v>
       </c>
       <c r="J40" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K40" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L40" t="s">
         <v>23</v>
@@ -3871,18 +3998,18 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C41" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D41" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E41">
         <v>17.28</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="9">
         <v>1360.21</v>
       </c>
       <c r="G41">
@@ -3895,13 +4022,13 @@
         <v>14</v>
       </c>
       <c r="J41" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K41" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -3909,18 +4036,18 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C42" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D42" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E42">
         <v>17.53</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="9">
         <v>1364.09</v>
       </c>
       <c r="G42">
@@ -3933,10 +4060,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="K42" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="L42" t="s">
         <v>29</v>
@@ -3947,18 +4074,18 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C43" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D43" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E43">
         <v>17.73</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="9">
         <v>1369.57</v>
       </c>
       <c r="G43">
@@ -3968,16 +4095,16 @@
         <v>171</v>
       </c>
       <c r="J43" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K43" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L43" t="s">
         <v>23</v>
       </c>
       <c r="M43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3985,18 +4112,18 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C44" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D44" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E44">
         <v>17.78</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="9">
         <v>1371.16</v>
       </c>
       <c r="G44">
@@ -4006,16 +4133,16 @@
         <v>159</v>
       </c>
       <c r="J44" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K44" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="L44" t="s">
         <v>23</v>
       </c>
       <c r="M44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -4023,18 +4150,18 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C45" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D45" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E45">
         <v>17.850999999999999</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="9">
         <v>1373.7919999999999</v>
       </c>
       <c r="G45" s="3">
@@ -4044,16 +4171,16 @@
         <v>292</v>
       </c>
       <c r="J45" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="K45" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="L45" t="s">
         <v>23</v>
       </c>
       <c r="M45" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -4061,18 +4188,18 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C46" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D46" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E46">
         <v>17.760000000000002</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="9">
         <v>1373.799</v>
       </c>
       <c r="G46">
@@ -4082,16 +4209,16 @@
         <v>292</v>
       </c>
       <c r="J46" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K46" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L46" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M46" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -4099,18 +4226,18 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C47" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D47" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E47">
         <v>17.88</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="9">
         <v>1375.92</v>
       </c>
       <c r="G47">
@@ -4120,19 +4247,19 @@
         <v>115</v>
       </c>
       <c r="I47" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="J47" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="K47" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="L47" t="s">
         <v>23</v>
       </c>
       <c r="M47" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -4140,18 +4267,18 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C48" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D48" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E48">
         <v>17.89</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="9">
         <v>1375.92</v>
       </c>
       <c r="G48">
@@ -4161,36 +4288,36 @@
         <v>158</v>
       </c>
       <c r="J48" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="K48" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="L48" t="s">
         <v>23</v>
       </c>
       <c r="M48" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>210</v>
-      </c>
-      <c r="C49" t="s">
-        <v>211</v>
-      </c>
-      <c r="D49" t="s">
-        <v>211</v>
-      </c>
-      <c r="E49">
-        <v>18.690000000000001</v>
-      </c>
-      <c r="F49" s="10">
-        <v>1414.04</v>
+      <c r="B49" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="E49" s="16">
+        <v>18.785</v>
+      </c>
+      <c r="F49" s="9">
+        <v>1414.3979999999999</v>
       </c>
       <c r="G49">
         <v>261</v>
@@ -4198,17 +4325,17 @@
       <c r="H49">
         <v>158</v>
       </c>
-      <c r="I49">
-        <v>58</v>
-      </c>
       <c r="J49" t="s">
-        <v>212</v>
+        <v>576</v>
       </c>
       <c r="K49" t="s">
-        <v>213</v>
+        <v>577</v>
       </c>
       <c r="L49" t="s">
-        <v>64</v>
+        <v>23</v>
+      </c>
+      <c r="M49" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -4216,18 +4343,18 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C50" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D50" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E50">
         <v>18.82</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="9">
         <v>1423.6</v>
       </c>
       <c r="G50">
@@ -4237,13 +4364,13 @@
         <v>222</v>
       </c>
       <c r="J50" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K50" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="L50" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -4251,18 +4378,18 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C51" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D51" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E51">
         <v>19.11</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="9">
         <v>1431.01</v>
       </c>
       <c r="G51">
@@ -4272,16 +4399,16 @@
         <v>321</v>
       </c>
       <c r="J51" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="K51" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="L51" t="s">
         <v>23</v>
       </c>
       <c r="M51" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -4289,18 +4416,18 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C52" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D52" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E52">
         <v>19.260000000000002</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="9">
         <v>1436.39</v>
       </c>
       <c r="G52">
@@ -4310,10 +4437,10 @@
         <v>172</v>
       </c>
       <c r="J52" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K52" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="L52" t="s">
         <v>23</v>
@@ -4327,18 +4454,18 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C53" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D53" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E53">
         <v>19.510000000000002</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="9">
         <v>1449.59</v>
       </c>
       <c r="G53">
@@ -4348,10 +4475,10 @@
         <v>186</v>
       </c>
       <c r="J53" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="K53" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="L53" t="s">
         <v>23</v>
@@ -4365,18 +4492,18 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C54" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D54" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E54">
         <v>19.5</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="9">
         <v>1452.26</v>
       </c>
       <c r="G54">
@@ -4386,10 +4513,10 @@
         <v>198</v>
       </c>
       <c r="J54" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="K54" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L54" t="s">
         <v>17</v>
@@ -4400,18 +4527,18 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C55" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D55" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E55">
         <v>19.61</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="9">
         <v>1452.86</v>
       </c>
       <c r="G55">
@@ -4421,16 +4548,16 @@
         <v>158</v>
       </c>
       <c r="J55" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="K55" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L55" t="s">
         <v>23</v>
       </c>
       <c r="M55" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -4438,37 +4565,37 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C56" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D56" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E56">
         <v>19.600000000000001</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="9">
         <v>1462.0170000000001</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="8">
         <v>217</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H56" s="8">
         <v>259</v>
       </c>
       <c r="J56" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K56" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="L56" t="s">
         <v>23</v>
       </c>
       <c r="M56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -4476,18 +4603,18 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C57" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D57" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E57">
         <v>20.361999999999998</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F57" s="9">
         <v>1489.77</v>
       </c>
       <c r="G57">
@@ -4497,16 +4624,16 @@
         <v>259</v>
       </c>
       <c r="J57" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="K57" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="L57" t="s">
         <v>23</v>
       </c>
       <c r="M57" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -4514,18 +4641,18 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C58" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D58" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E58">
         <v>20.260000000000002</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F58" s="9">
         <v>1491.5</v>
       </c>
       <c r="G58">
@@ -4535,13 +4662,13 @@
         <v>209</v>
       </c>
       <c r="J58" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="K58" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="L58" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -4549,18 +4676,18 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C59" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D59" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E59">
         <v>20.37</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F59" s="9">
         <v>1492.07</v>
       </c>
       <c r="G59">
@@ -4570,10 +4697,10 @@
         <v>273</v>
       </c>
       <c r="J59" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K59" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L59" t="s">
         <v>17</v>
@@ -4584,18 +4711,18 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C60" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D60" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E60">
         <v>20.45</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F60" s="9">
         <v>1492.65</v>
       </c>
       <c r="G60">
@@ -4605,10 +4732,10 @@
         <v>363</v>
       </c>
       <c r="J60" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="K60" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="L60" t="s">
         <v>23</v>
@@ -4622,18 +4749,18 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C61" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D61" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E61">
         <v>20.55</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61" s="9">
         <v>1497.46</v>
       </c>
       <c r="G61">
@@ -4643,16 +4770,16 @@
         <v>216</v>
       </c>
       <c r="J61" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K61" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L61" t="s">
         <v>23</v>
       </c>
       <c r="M61" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -4660,18 +4787,18 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C62" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D62" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E62">
         <v>20.565000000000001</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F62" s="9">
         <v>1497.75</v>
       </c>
       <c r="G62">
@@ -4681,10 +4808,10 @@
         <v>179</v>
       </c>
       <c r="J62" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="K62" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="L62" t="s">
         <v>23</v>
@@ -4698,18 +4825,18 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="C63" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D63" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E63">
         <v>20.58</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F63" s="9">
         <v>1506.99</v>
       </c>
       <c r="G63">
@@ -4722,33 +4849,33 @@
         <v>57</v>
       </c>
       <c r="J63" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="K63" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="L63" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
-        <v>273</v>
-      </c>
-      <c r="C64" t="s">
-        <v>274</v>
-      </c>
-      <c r="D64" t="s">
-        <v>274</v>
-      </c>
-      <c r="E64">
-        <v>20.85</v>
-      </c>
-      <c r="F64" s="10">
-        <v>1516.33</v>
+      <c r="B64" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="E64" s="16">
+        <v>20.978000000000002</v>
+      </c>
+      <c r="F64" s="9">
+        <v>1520.2929999999999</v>
       </c>
       <c r="G64">
         <v>111</v>
@@ -4756,17 +4883,17 @@
       <c r="H64">
         <v>275</v>
       </c>
-      <c r="I64">
-        <v>52</v>
-      </c>
       <c r="J64" t="s">
-        <v>275</v>
+        <v>578</v>
       </c>
       <c r="K64" t="s">
-        <v>276</v>
+        <v>579</v>
       </c>
       <c r="L64" t="s">
-        <v>167</v>
+        <v>23</v>
+      </c>
+      <c r="M64" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -4774,18 +4901,18 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C65" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D65" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="E65">
         <v>21.059000000000001</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F65" s="9">
         <v>1523.26</v>
       </c>
       <c r="G65">
@@ -4795,10 +4922,10 @@
         <v>135</v>
       </c>
       <c r="J65" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="K65" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="L65" t="s">
         <v>23</v>
@@ -4812,18 +4939,18 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C66" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D66" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E66">
         <v>21.13</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F66" s="9">
         <v>1527.52</v>
       </c>
       <c r="G66">
@@ -4833,36 +4960,36 @@
         <v>261</v>
       </c>
       <c r="J66" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="K66" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="L66" t="s">
         <v>23</v>
       </c>
       <c r="M66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
-        <v>284</v>
-      </c>
-      <c r="C67" t="s">
-        <v>285</v>
-      </c>
-      <c r="D67" t="s">
-        <v>285</v>
-      </c>
-      <c r="E67">
+      <c r="B67" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="E67" s="16">
         <v>21.29</v>
       </c>
-      <c r="F67" s="10">
-        <v>1535.34</v>
+      <c r="F67" s="9">
+        <v>1535.019</v>
       </c>
       <c r="G67">
         <v>156</v>
@@ -4871,16 +4998,16 @@
         <v>258</v>
       </c>
       <c r="J67" t="s">
-        <v>286</v>
+        <v>568</v>
       </c>
       <c r="K67" t="s">
-        <v>287</v>
+        <v>569</v>
       </c>
       <c r="L67" t="s">
         <v>23</v>
       </c>
       <c r="M67" t="s">
-        <v>39</v>
+        <v>565</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -4888,18 +5015,18 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C68" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="D68" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="E68">
         <v>21.46</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F68" s="9">
         <v>1547.32</v>
       </c>
       <c r="G68">
@@ -4912,10 +5039,10 @@
         <v>72</v>
       </c>
       <c r="J68" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="K68" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="L68" t="s">
         <v>29</v>
@@ -4926,18 +5053,18 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C69" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D69" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="E69">
         <v>21.45</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F69" s="9">
         <v>1552.6</v>
       </c>
       <c r="G69">
@@ -4947,33 +5074,33 @@
         <v>220</v>
       </c>
       <c r="J69" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="K69" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="L69" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
-        <v>297</v>
-      </c>
-      <c r="C70" t="s">
-        <v>298</v>
-      </c>
-      <c r="D70" t="s">
-        <v>298</v>
-      </c>
-      <c r="E70">
-        <v>21.75</v>
-      </c>
-      <c r="F70" s="10">
-        <v>1561.67</v>
+      <c r="B70" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="E70" s="16">
+        <v>21.855</v>
+      </c>
+      <c r="F70" s="9">
+        <v>1563.5730000000001</v>
       </c>
       <c r="G70">
         <v>271</v>
@@ -4982,13 +5109,16 @@
         <v>169</v>
       </c>
       <c r="J70" t="s">
-        <v>299</v>
+        <v>580</v>
       </c>
       <c r="K70" t="s">
-        <v>300</v>
+        <v>581</v>
       </c>
       <c r="L70" t="s">
-        <v>167</v>
+        <v>23</v>
+      </c>
+      <c r="M70" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -4996,18 +5126,18 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C71" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="D71" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E71">
         <v>22.22</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F71" s="9">
         <v>1579.92</v>
       </c>
       <c r="G71">
@@ -5017,16 +5147,16 @@
         <v>184</v>
       </c>
       <c r="J71" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="K71" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="L71" t="s">
         <v>23</v>
       </c>
       <c r="M71" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -5034,18 +5164,18 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="C72" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="D72" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="E72">
         <v>22.13</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F72" s="9">
         <v>1580.55</v>
       </c>
       <c r="G72">
@@ -5055,13 +5185,13 @@
         <v>296</v>
       </c>
       <c r="J72" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="K72" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="L72" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -5069,18 +5199,18 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C73" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="D73" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E73">
         <v>22.22</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F73" s="9">
         <v>1581.47</v>
       </c>
       <c r="G73">
@@ -5090,16 +5220,16 @@
         <v>83</v>
       </c>
       <c r="J73" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="K73" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="L73" t="s">
         <v>23</v>
       </c>
       <c r="M73" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -5107,18 +5237,18 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C74" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="D74" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="E74">
         <v>22.23</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F74" s="9">
         <v>1582.41</v>
       </c>
       <c r="G74">
@@ -5128,10 +5258,10 @@
         <v>138</v>
       </c>
       <c r="J74" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="K74" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="L74" t="s">
         <v>23</v>
@@ -5145,18 +5275,18 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C75" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="D75" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="E75">
         <v>22.38</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F75" s="9">
         <v>1594.17</v>
       </c>
       <c r="G75">
@@ -5166,16 +5296,16 @@
         <v>304</v>
       </c>
       <c r="J75" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="K75" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="L75" t="s">
         <v>34</v>
       </c>
       <c r="M75" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -5183,31 +5313,31 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="C76" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="D76" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="E76">
         <v>22.46</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F76" s="9">
         <v>1594.17</v>
       </c>
       <c r="J76" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="K76" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="L76" t="s">
         <v>23</v>
       </c>
       <c r="M76" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -5215,18 +5345,18 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="C77" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="D77" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E77">
         <v>22.43</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F77" s="9">
         <v>1594.4839999999999</v>
       </c>
       <c r="G77" s="4">
@@ -5236,13 +5366,13 @@
         <v>349</v>
       </c>
       <c r="J77" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="K77" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="L77" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -5250,18 +5380,18 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="C78" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="D78" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="E78">
         <v>22.56</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F78" s="9">
         <v>1597.56</v>
       </c>
       <c r="G78">
@@ -5271,16 +5401,16 @@
         <v>295</v>
       </c>
       <c r="J78" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="K78" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="L78" t="s">
         <v>23</v>
       </c>
       <c r="M78" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -5288,18 +5418,18 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C79" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="D79" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="E79">
         <v>22.56</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F79" s="9">
         <v>1598.17</v>
       </c>
       <c r="G79">
@@ -5309,10 +5439,10 @@
         <v>138</v>
       </c>
       <c r="J79" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="K79" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="L79" t="s">
         <v>23</v>
@@ -5325,20 +5455,20 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
-        <v>339</v>
-      </c>
-      <c r="C80" t="s">
-        <v>340</v>
-      </c>
-      <c r="D80" t="s">
-        <v>340</v>
-      </c>
-      <c r="E80">
-        <v>22.78</v>
-      </c>
-      <c r="F80" s="10">
-        <v>1614.12</v>
+      <c r="B80" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="E80" s="16">
+        <v>22.878</v>
+      </c>
+      <c r="F80" s="9">
+        <v>1615.1859999999999</v>
       </c>
       <c r="G80">
         <v>155</v>
@@ -5346,17 +5476,17 @@
       <c r="H80">
         <v>289</v>
       </c>
-      <c r="I80">
-        <v>95</v>
-      </c>
       <c r="J80" t="s">
-        <v>341</v>
+        <v>582</v>
       </c>
       <c r="K80" t="s">
-        <v>342</v>
+        <v>583</v>
       </c>
       <c r="L80" t="s">
-        <v>167</v>
+        <v>23</v>
+      </c>
+      <c r="M80" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -5364,18 +5494,18 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="C81" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D81" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="E81">
         <v>22.96</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F81" s="9">
         <v>1620.1</v>
       </c>
       <c r="G81">
@@ -5385,10 +5515,10 @@
         <v>363</v>
       </c>
       <c r="J81" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="K81" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="L81" t="s">
         <v>23</v>
@@ -5402,18 +5532,18 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="C82" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="D82" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="E82">
         <v>23</v>
       </c>
-      <c r="F82" s="10">
+      <c r="F82" s="9">
         <v>1620.44</v>
       </c>
       <c r="G82">
@@ -5423,16 +5553,16 @@
         <v>296</v>
       </c>
       <c r="J82" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="K82" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="L82" t="s">
         <v>23</v>
       </c>
       <c r="M82" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -5440,18 +5570,18 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C83" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D83" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="E83">
         <v>22.9</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F83" s="9">
         <v>1627</v>
       </c>
       <c r="G83">
@@ -5461,13 +5591,13 @@
         <v>281</v>
       </c>
       <c r="J83" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="K83" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="L83" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -5475,18 +5605,18 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="C84" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="D84" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="E84">
         <v>23.2</v>
       </c>
-      <c r="F84" s="10">
+      <c r="F84" s="9">
         <v>1636.41</v>
       </c>
       <c r="G84">
@@ -5496,13 +5626,13 @@
         <v>223</v>
       </c>
       <c r="J84" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="K84" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="L84" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -5510,18 +5640,18 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="C85" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="D85" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="E85">
         <v>23.42</v>
       </c>
-      <c r="F85" s="10">
+      <c r="F85" s="9">
         <v>1651.5</v>
       </c>
       <c r="G85">
@@ -5531,13 +5661,13 @@
         <v>296</v>
       </c>
       <c r="J85" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="K85" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="L85" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -5545,18 +5675,18 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="C86" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="D86" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="E86">
         <v>23.5</v>
       </c>
-      <c r="F86" s="10">
+      <c r="F86" s="9">
         <v>1656.8</v>
       </c>
       <c r="G86">
@@ -5566,16 +5696,16 @@
         <v>272</v>
       </c>
       <c r="J86" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K86" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L86" t="s">
         <v>23</v>
       </c>
       <c r="M86" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -5583,18 +5713,18 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="C87" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="D87" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="E87">
         <v>23.68</v>
       </c>
-      <c r="F87" s="10">
+      <c r="F87" s="9">
         <v>1659.66</v>
       </c>
       <c r="G87">
@@ -5604,10 +5734,10 @@
         <v>300</v>
       </c>
       <c r="J87" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="K87" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="L87" t="s">
         <v>23</v>
@@ -5621,18 +5751,18 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="C88" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="D88" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="E88">
         <v>23.74</v>
       </c>
-      <c r="F88" s="10">
+      <c r="F88" s="9">
         <v>1665.75</v>
       </c>
       <c r="G88">
@@ -5642,10 +5772,10 @@
         <v>226</v>
       </c>
       <c r="J88" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="K88" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="L88" t="s">
         <v>29</v>
@@ -5656,18 +5786,18 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="C89" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="D89" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="E89">
         <v>23.83</v>
       </c>
-      <c r="F89" s="10">
+      <c r="F89" s="9">
         <v>1667.77</v>
       </c>
       <c r="G89">
@@ -5677,16 +5807,16 @@
         <v>219</v>
       </c>
       <c r="J89" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="K89" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="L89" t="s">
         <v>23</v>
       </c>
       <c r="M89" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -5694,18 +5824,18 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="C90" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="D90" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="E90">
         <v>23.937999999999999</v>
       </c>
-      <c r="F90" s="10">
+      <c r="F90" s="9">
         <v>1673.48</v>
       </c>
       <c r="G90">
@@ -5715,10 +5845,10 @@
         <v>376</v>
       </c>
       <c r="J90" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="K90" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="L90" t="s">
         <v>23</v>
@@ -5732,37 +5862,37 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="C91" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="D91" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="E91">
         <v>24.08</v>
       </c>
-      <c r="F91" s="10">
+      <c r="F91" s="9">
         <v>1680.1569999999999</v>
       </c>
       <c r="G91" s="5">
         <v>302</v>
       </c>
-      <c r="H91" s="13">
+      <c r="H91" s="12">
         <v>318</v>
       </c>
       <c r="J91" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="K91" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="L91" t="s">
         <v>23</v>
       </c>
       <c r="M91" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -5770,18 +5900,18 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="C92" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="D92" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="E92">
         <v>24.29</v>
       </c>
-      <c r="F92" s="10">
+      <c r="F92" s="9">
         <v>1691.11</v>
       </c>
       <c r="G92">
@@ -5791,10 +5921,10 @@
         <v>129</v>
       </c>
       <c r="J92" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="K92" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="L92" t="s">
         <v>23</v>
@@ -5808,18 +5938,18 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="C93" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="D93" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="E93">
         <v>24.51</v>
       </c>
-      <c r="F93" s="10">
+      <c r="F93" s="9">
         <v>1707.8</v>
       </c>
       <c r="G93">
@@ -5832,16 +5962,16 @@
         <v>98</v>
       </c>
       <c r="J93" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="K93" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="L93" t="s">
         <v>34</v>
       </c>
       <c r="M93" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -5849,18 +5979,18 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="C94" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="D94" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="E94">
         <v>25.17</v>
       </c>
-      <c r="F94" s="10">
+      <c r="F94" s="9">
         <v>1741.5</v>
       </c>
       <c r="G94">
@@ -5870,10 +6000,10 @@
         <v>310</v>
       </c>
       <c r="J94" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="K94" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="L94" t="s">
         <v>23</v>
@@ -5886,20 +6016,20 @@
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
-        <v>396</v>
-      </c>
-      <c r="C95" t="s">
-        <v>397</v>
-      </c>
-      <c r="D95" t="s">
-        <v>397</v>
-      </c>
-      <c r="E95">
-        <v>25.15</v>
-      </c>
-      <c r="F95" s="10">
-        <v>1743.66</v>
+      <c r="B95" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="E95" s="16">
+        <v>25.28</v>
+      </c>
+      <c r="F95" s="9">
+        <v>1747.636</v>
       </c>
       <c r="G95">
         <v>296</v>
@@ -5907,17 +6037,17 @@
       <c r="H95">
         <v>194</v>
       </c>
-      <c r="I95">
-        <v>60</v>
-      </c>
       <c r="J95" t="s">
-        <v>398</v>
+        <v>584</v>
       </c>
       <c r="K95" t="s">
-        <v>399</v>
+        <v>585</v>
       </c>
       <c r="L95" t="s">
-        <v>64</v>
+        <v>23</v>
+      </c>
+      <c r="M95" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -5925,37 +6055,37 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="C96" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="D96" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="E96">
         <v>25.63</v>
       </c>
-      <c r="F96" s="10">
+      <c r="F96" s="9">
         <v>1767.194</v>
       </c>
-      <c r="G96" s="14">
+      <c r="G96" s="13">
         <v>357</v>
       </c>
-      <c r="H96" s="14">
+      <c r="H96" s="13">
         <v>254</v>
       </c>
       <c r="J96" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="K96" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="L96" t="s">
         <v>23</v>
       </c>
       <c r="M96" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -5963,18 +6093,18 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="C97" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="D97" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="E97">
         <v>25.58</v>
       </c>
-      <c r="F97" s="10">
+      <c r="F97" s="9">
         <v>1767.91</v>
       </c>
       <c r="G97">
@@ -5987,10 +6117,10 @@
         <v>86</v>
       </c>
       <c r="J97" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="K97" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="L97" t="s">
         <v>17</v>
@@ -6001,18 +6131,18 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="C98" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="D98" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="E98">
         <v>25.83</v>
       </c>
-      <c r="F98" s="10">
+      <c r="F98" s="9">
         <v>1777.16</v>
       </c>
       <c r="G98">
@@ -6022,16 +6152,16 @@
         <v>312</v>
       </c>
       <c r="J98" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="K98" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="L98" t="s">
         <v>23</v>
       </c>
       <c r="M98" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -6039,18 +6169,18 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="C99" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="D99" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="E99">
         <v>25.69</v>
       </c>
-      <c r="F99" s="10">
+      <c r="F99" s="9">
         <v>1779.3</v>
       </c>
       <c r="G99">
@@ -6063,13 +6193,13 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="K99" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="L99" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -6077,18 +6207,18 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="C100" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="D100" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="E100">
         <v>25.88</v>
       </c>
-      <c r="F100" s="10">
+      <c r="F100" s="9">
         <v>1785.68</v>
       </c>
       <c r="G100">
@@ -6101,10 +6231,10 @@
         <v>82</v>
       </c>
       <c r="J100" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="K100" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="L100" t="s">
         <v>34</v>
@@ -6115,18 +6245,18 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="C101" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="D101" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="E101">
         <v>26.196999999999999</v>
       </c>
-      <c r="F101" s="10">
+      <c r="F101" s="9">
         <v>1799.66</v>
       </c>
       <c r="G101">
@@ -6136,19 +6266,19 @@
         <v>341</v>
       </c>
       <c r="J101" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="K101" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="L101" t="s">
         <v>23</v>
       </c>
       <c r="M101" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N101" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -6156,18 +6286,18 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="C102" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="D102" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="E102">
         <v>26.23</v>
       </c>
-      <c r="F102" s="10">
+      <c r="F102" s="9">
         <v>1799.66</v>
       </c>
       <c r="G102">
@@ -6177,10 +6307,10 @@
         <v>341</v>
       </c>
       <c r="J102" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="K102" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="L102" t="s">
         <v>23</v>
@@ -6194,18 +6324,18 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="C103" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="D103" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="E103">
         <v>26.26</v>
       </c>
-      <c r="F103" s="10">
+      <c r="F103" s="9">
         <v>1806.26</v>
       </c>
       <c r="G103">
@@ -6218,10 +6348,10 @@
         <v>70</v>
       </c>
       <c r="J103" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="K103" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="L103" t="s">
         <v>17</v>
@@ -6232,18 +6362,18 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C104" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D104" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E104">
         <v>26.96</v>
       </c>
-      <c r="F104" s="10">
+      <c r="F104" s="9">
         <v>1848.12</v>
       </c>
       <c r="G104">
@@ -6256,13 +6386,13 @@
         <v>21</v>
       </c>
       <c r="J104" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="K104" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="L104" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -6270,18 +6400,18 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="C105" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="D105" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="E105">
         <v>26.95</v>
       </c>
-      <c r="F105" s="10">
+      <c r="F105" s="9">
         <v>1848.31</v>
       </c>
       <c r="G105">
@@ -6294,10 +6424,10 @@
         <v>69</v>
       </c>
       <c r="J105" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="K105" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="L105" t="s">
         <v>29</v>
@@ -6308,18 +6438,18 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="C106" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="D106" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="E106">
         <v>27.02</v>
       </c>
-      <c r="F106" s="10">
+      <c r="F106" s="9">
         <v>1848.692</v>
       </c>
       <c r="G106">
@@ -6329,13 +6459,13 @@
         <v>465</v>
       </c>
       <c r="J106" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="K106" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="L106" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M106" t="s">
         <v>24</v>
@@ -6346,18 +6476,18 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="C107" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="D107" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="E107">
         <v>27.06</v>
       </c>
-      <c r="F107" s="10">
+      <c r="F107" s="9">
         <v>1850.97</v>
       </c>
       <c r="G107">
@@ -6367,16 +6497,16 @@
         <v>273</v>
       </c>
       <c r="J107" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="K107" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="L107" t="s">
         <v>23</v>
       </c>
       <c r="M107" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -6384,18 +6514,18 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="C108" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="D108" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E108">
         <v>27.32</v>
       </c>
-      <c r="F108" s="10">
+      <c r="F108" s="9">
         <v>1866.47</v>
       </c>
       <c r="G108">
@@ -6405,10 +6535,10 @@
         <v>479</v>
       </c>
       <c r="J108" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="K108" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="L108" t="s">
         <v>23</v>
@@ -6422,18 +6552,18 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="C109" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="D109" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="E109">
         <v>27.33</v>
       </c>
-      <c r="F109" s="10">
+      <c r="F109" s="9">
         <v>1870.6</v>
       </c>
       <c r="G109">
@@ -6443,10 +6573,10 @@
         <v>398</v>
       </c>
       <c r="J109" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="K109" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="L109" t="s">
         <v>34</v>
@@ -6457,18 +6587,18 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="C110" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D110" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="E110">
         <v>27.45</v>
       </c>
-      <c r="F110" s="10">
+      <c r="F110" s="9">
         <v>1873.61</v>
       </c>
       <c r="G110">
@@ -6478,10 +6608,10 @@
         <v>479</v>
       </c>
       <c r="J110" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="K110" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="L110" t="s">
         <v>23</v>
@@ -6495,18 +6625,18 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="C111" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="D111" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E111">
         <v>27.48</v>
       </c>
-      <c r="F111" s="10">
+      <c r="F111" s="9">
         <v>1879.22</v>
       </c>
       <c r="G111">
@@ -6516,13 +6646,13 @@
         <v>293</v>
       </c>
       <c r="J111" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="K111" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="L111" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -6530,18 +6660,18 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="C112" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="D112" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="E112">
         <v>27.57</v>
       </c>
-      <c r="F112" s="10">
+      <c r="F112" s="9">
         <v>1890.3</v>
       </c>
       <c r="G112">
@@ -6551,13 +6681,13 @@
         <v>305</v>
       </c>
       <c r="J112" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="K112" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="L112" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -6565,18 +6695,18 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="C113" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="D113" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="E113">
         <v>27.87</v>
       </c>
-      <c r="F113" s="10">
+      <c r="F113" s="9">
         <v>1895.2</v>
       </c>
       <c r="G113">
@@ -6586,98 +6716,101 @@
         <v>250</v>
       </c>
       <c r="J113" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="K113" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="L113" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="M113" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="C114" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="D114" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="E114">
-        <v>27.89</v>
-      </c>
-      <c r="F114" s="10">
-        <v>1903.22</v>
+        <v>27.81</v>
+      </c>
+      <c r="F114" s="9">
+        <v>1904</v>
       </c>
       <c r="G114">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="H114">
-        <v>371</v>
+        <v>215</v>
       </c>
       <c r="I114">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="J114" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="K114" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="L114" t="s">
-        <v>167</v>
+        <v>49</v>
+      </c>
+      <c r="M114" t="s">
+        <v>39</v>
+      </c>
+      <c r="N114" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115">
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>480</v>
-      </c>
-      <c r="C115" t="s">
-        <v>481</v>
-      </c>
-      <c r="D115" t="s">
-        <v>482</v>
-      </c>
-      <c r="E115">
-        <v>27.81</v>
-      </c>
-      <c r="F115" s="10">
-        <v>1904</v>
+        <v>113</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="D115" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="E115" s="16">
+        <v>27.98</v>
+      </c>
+      <c r="F115" s="9">
+        <v>1904.8409999999999</v>
       </c>
       <c r="G115">
-        <v>331</v>
+        <v>173</v>
       </c>
       <c r="H115">
-        <v>215</v>
-      </c>
-      <c r="I115">
-        <v>49</v>
+        <v>289</v>
+      </c>
+      <c r="I115" t="s">
+        <v>567</v>
       </c>
       <c r="J115" t="s">
-        <v>483</v>
+        <v>586</v>
       </c>
       <c r="K115" t="s">
-        <v>484</v>
+        <v>587</v>
       </c>
       <c r="L115" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M115" t="s">
-        <v>39</v>
-      </c>
-      <c r="N115" t="s">
-        <v>23</v>
+        <v>557</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -6685,18 +6818,18 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="C116" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="D116" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="E116">
         <v>28.16</v>
       </c>
-      <c r="F116" s="10">
+      <c r="F116" s="9">
         <v>1920.06</v>
       </c>
       <c r="G116">
@@ -6709,13 +6842,13 @@
         <v>42</v>
       </c>
       <c r="J116" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="K116" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="L116" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -6723,18 +6856,18 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="C117" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="D117" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="E117">
         <v>28.21</v>
       </c>
-      <c r="F117" s="10">
+      <c r="F117" s="9">
         <v>1922.86</v>
       </c>
       <c r="G117">
@@ -6747,13 +6880,13 @@
         <v>28</v>
       </c>
       <c r="J117" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="K117" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="L117" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -6761,18 +6894,18 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="C118" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="D118" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="E118">
         <v>28.27</v>
       </c>
-      <c r="F118" s="10">
+      <c r="F118" s="9">
         <v>1923.66</v>
       </c>
       <c r="G118">
@@ -6782,10 +6915,10 @@
         <v>252</v>
       </c>
       <c r="J118" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="K118" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="L118" t="s">
         <v>23</v>
@@ -6799,34 +6932,34 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="C119" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="D119" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="E119">
         <v>28.29</v>
       </c>
-      <c r="F119" s="10">
+      <c r="F119" s="9">
         <v>1924.05</v>
       </c>
-      <c r="G119" s="9">
+      <c r="G119" s="8">
         <v>308</v>
       </c>
-      <c r="H119" s="9">
+      <c r="H119" s="8">
         <v>383</v>
       </c>
       <c r="J119" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="K119" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="L119" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -6834,18 +6967,18 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="C120" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="D120" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="E120">
         <v>29.06</v>
       </c>
-      <c r="F120" s="10">
+      <c r="F120" s="9">
         <v>1975.83</v>
       </c>
       <c r="G120">
@@ -6855,13 +6988,13 @@
         <v>319</v>
       </c>
       <c r="J120" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="K120" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="L120" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -6869,18 +7002,18 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="C121" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="D121" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="E121">
         <v>29.704999999999998</v>
       </c>
-      <c r="F121" s="10">
+      <c r="F121" s="9">
         <v>2014.308</v>
       </c>
       <c r="G121">
@@ -6890,16 +7023,16 @@
         <v>264</v>
       </c>
       <c r="J121" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="K121" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="L121" t="s">
         <v>23</v>
       </c>
       <c r="M121" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -6907,18 +7040,18 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="C122" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="D122" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="E122">
         <v>30.12</v>
       </c>
-      <c r="F122" s="10">
+      <c r="F122" s="9">
         <v>2043.06</v>
       </c>
       <c r="G122">
@@ -6928,10 +7061,10 @@
         <v>305</v>
       </c>
       <c r="J122" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="K122" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="L122" t="s">
         <v>23</v>
@@ -6945,18 +7078,18 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="C123" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="D123" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="E123">
         <v>30.166</v>
       </c>
-      <c r="F123" s="10">
+      <c r="F123" s="9">
         <v>2046.1379999999999</v>
       </c>
       <c r="G123">
@@ -6966,16 +7099,16 @@
         <v>338</v>
       </c>
       <c r="J123" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="K123" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="L123" t="s">
         <v>23</v>
       </c>
       <c r="M123" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -6983,18 +7116,18 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="C124" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="D124" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="E124">
         <v>30.16</v>
       </c>
-      <c r="F124" s="10">
+      <c r="F124" s="9">
         <v>2050.4</v>
       </c>
       <c r="G124">
@@ -7007,13 +7140,13 @@
         <v>64</v>
       </c>
       <c r="J124" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="K124" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="L124" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -7021,18 +7154,18 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="C125" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="D125" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="E125">
         <v>30.68</v>
       </c>
-      <c r="F125" s="10">
+      <c r="F125" s="9">
         <v>2084.15</v>
       </c>
       <c r="G125">
@@ -7045,13 +7178,13 @@
         <v>69</v>
       </c>
       <c r="J125" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="K125" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="L125" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -7059,37 +7192,37 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="C126" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="D126" t="s">
-        <v>512</v>
-      </c>
-      <c r="E126" s="6">
+        <v>492</v>
+      </c>
+      <c r="E126" s="15">
         <v>31.03</v>
       </c>
-      <c r="F126" s="10">
+      <c r="F126" s="9">
         <v>2103.6819999999998</v>
       </c>
-      <c r="G126" s="7">
+      <c r="G126" s="6">
         <v>359</v>
       </c>
-      <c r="H126" s="7">
+      <c r="H126" s="6">
         <v>243</v>
       </c>
       <c r="J126" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="K126" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="L126" t="s">
         <v>23</v>
       </c>
       <c r="M126" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -7097,18 +7230,18 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="C127" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="D127" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="E127">
         <v>31.01</v>
       </c>
-      <c r="F127" s="10">
+      <c r="F127" s="9">
         <v>2107.9499999999998</v>
       </c>
       <c r="G127">
@@ -7121,10 +7254,10 @@
         <v>50</v>
       </c>
       <c r="J127" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="K127" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="L127" t="s">
         <v>34</v>
@@ -7135,18 +7268,18 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="C128" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="D128" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="E128">
         <v>31.82</v>
       </c>
-      <c r="F128" s="10">
+      <c r="F128" s="9">
         <v>2157.1999999999998</v>
       </c>
       <c r="G128">
@@ -7156,10 +7289,10 @@
         <v>218</v>
       </c>
       <c r="J128" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="K128" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="L128" t="s">
         <v>23</v>
@@ -7173,18 +7306,18 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="C129" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="D129" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="E129">
         <v>31.82</v>
       </c>
-      <c r="F129" s="10">
+      <c r="F129" s="9">
         <v>2158</v>
       </c>
       <c r="G129">
@@ -7194,10 +7327,10 @@
         <v>308</v>
       </c>
       <c r="J129" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="K129" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="L129" t="s">
         <v>23</v>
@@ -7211,18 +7344,18 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="C130" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="D130" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="E130">
         <v>31.85</v>
       </c>
-      <c r="F130" s="10">
+      <c r="F130" s="9">
         <v>2159.29</v>
       </c>
       <c r="G130">
@@ -7232,10 +7365,10 @@
         <v>339</v>
       </c>
       <c r="J130" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="K130" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="L130" t="s">
         <v>29</v>
@@ -7246,18 +7379,18 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="C131" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="D131" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="E131">
         <v>32.43</v>
       </c>
-      <c r="F131" s="10">
+      <c r="F131" s="9">
         <v>2199.9899999999998</v>
       </c>
       <c r="G131">
@@ -7270,13 +7403,13 @@
         <v>32</v>
       </c>
       <c r="J131" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="K131" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="L131" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -7284,37 +7417,37 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="C132" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="D132" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="E132">
         <v>32.43</v>
       </c>
-      <c r="F132" s="10">
+      <c r="F132" s="9">
         <v>2223.527</v>
       </c>
-      <c r="G132" s="9">
+      <c r="G132" s="8">
         <v>218</v>
       </c>
-      <c r="H132" s="9">
+      <c r="H132" s="8">
         <v>335</v>
       </c>
       <c r="J132" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="K132" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="L132" t="s">
         <v>23</v>
       </c>
       <c r="M132" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -7322,18 +7455,18 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="C133" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="D133" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="E133">
         <v>32.880000000000003</v>
       </c>
-      <c r="F133" s="10">
+      <c r="F133" s="9">
         <v>2242.91</v>
       </c>
       <c r="G133">
@@ -7343,13 +7476,13 @@
         <v>294</v>
       </c>
       <c r="J133" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="K133" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="L133" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -7357,18 +7490,18 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="C134" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="D134" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="E134">
         <v>33</v>
       </c>
-      <c r="F134" s="10">
+      <c r="F134" s="9">
         <v>2249.6</v>
       </c>
       <c r="G134">
@@ -7378,10 +7511,10 @@
         <v>356</v>
       </c>
       <c r="J134" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="K134" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="L134" t="s">
         <v>49</v>
@@ -7392,18 +7525,18 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="C135" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="D135" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="E135">
         <v>44.24</v>
       </c>
-      <c r="F135" s="10">
+      <c r="F135" s="9">
         <v>3183.71</v>
       </c>
       <c r="G135">
@@ -7413,21 +7546,21 @@
         <v>458</v>
       </c>
       <c r="J135" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="K135" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="L135" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M135" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:N135">
-    <sortCondition ref="F135"/>
+    <sortCondition ref="F123"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/lib/APGCMS/APGCMS/lib/lib_urine_20160406.xlsx
+++ b/lib/APGCMS/APGCMS/lib/lib_urine_20160406.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="1720" windowWidth="20420" windowHeight="12600" tabRatio="500"/>
+    <workbookView xWindow="27340" yWindow="160" windowWidth="25220" windowHeight="18360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="lib_urine_20160329.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="589">
   <si>
     <t>SeqIndex</t>
   </si>
@@ -1783,13 +1783,16 @@
   </si>
   <si>
     <t xml:space="preserve">2993 131840 117184 783936 50128 44168 2186 477 3414 5366 7652 7692 22840 5300 30528 80040 191616 17240 29776 4439 7963 5350 7856 27688 6297 1060 7044 17408 25960 4673024 439616 332032 27248 40752 6038 24080 1929 3324 20520 2535 9346 1360 7139 81928 12490 51008 15740 8352 1524 7167 3872 3686 1855 7184 1196 6256 6712 26800 15651 34248 7836 26648 5307 10777 2784 4080 1130 3288 24624 7363 47784 10916 43904 12153 24576 6129 9126 1633 601 1927 1972 6363 3085 2931 3834 2980 64096 175232 23800 99272 23024 53560 5887 2704 2875 1336 658 673 3678 1072 7865 612224 105632 96536 17440 32872 5361 4629 1248 1424 2555 512 6644 1155 35280 27784 122608 29368 71200 30920 7902 2999 1806 685 531 2502 2617 11536 7350 80648 59256 93216 27832 13761 3382 1029 444 410 1401 1570 7398 5694 33416 88568 374208 353600 75184 17872 4868 810 416 1274 475 2632 3188 15240 56728 76912 24056 113928 17040 9347 281 254 849 887 865 1716 1129 11981 4807 40040 256000 52736 21832 2333 531 271 1383 950 6421 3130 15490 30168 110008 26928 19168 3552 917 753 544 1652 654 17456 255360 97672 80008 16480 9847 1893 166 289 160 3922 2596 81520 35296 349824 81088 39688 5953 427 385 1131 499 5113 101336 34112 16162 5722 1965 447 206 178 1146 4448 2900 49616 5081600 1516544 601856 105200 17456 1495 270 1160 1365 3105 4847 23360 7021 3092 410 228 404 229 167 690 7238 3602 11529 18800 6740 2100 322 153 226 561 4121 930 1669 904 314 386 784 323 9951 3365 1242 393 208 2145 267520 87200 39816 8695 1790 651 288 152 639 1175 229 288 272 160 401 155648 46752 19192 5106 1122 435 32000 8840 4005 1136 232 308 208 192 258 265 194 177 278 494 351 227 297 166 336 221 </t>
+  </si>
+  <si>
+    <t>one peak only?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1830,6 +1833,17 @@
     <font>
       <sz val="10"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1996,7 +2010,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2018,6 +2032,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="109">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2457,10 +2473,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N135"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F123" sqref="F123"/>
+    <sheetView tabSelected="1" topLeftCell="B65" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5312,21 +5331,23 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="17">
         <v>22.46</v>
       </c>
-      <c r="F76" s="9">
+      <c r="F76" s="18">
         <v>1594.17</v>
       </c>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
       <c r="J76" t="s">
         <v>312</v>
       </c>
@@ -6690,7 +6711,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:15">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6728,7 +6749,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:15">
       <c r="A114">
         <v>114</v>
       </c>
@@ -6772,7 +6793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:15">
       <c r="A115">
         <v>113</v>
       </c>
@@ -6813,7 +6834,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:15">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6851,7 +6872,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:15">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6889,7 +6910,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:15">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6927,7 +6948,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:15">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6962,7 +6983,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:15">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6997,7 +7018,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:15">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7035,7 +7056,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:15">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7073,7 +7094,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:15">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7111,7 +7132,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:15">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7149,7 +7170,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:15">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7187,7 +7208,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:15">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7225,7 +7246,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:15">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7263,79 +7284,82 @@
         <v>34</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
-      <c r="A128">
+    <row r="128" spans="1:15" s="1" customFormat="1">
+      <c r="A128" s="1">
         <v>127</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="1">
         <v>31.82</v>
       </c>
-      <c r="F128" s="9">
+      <c r="F128" s="10">
         <v>2157.1999999999998</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="1">
         <v>260</v>
       </c>
-      <c r="H128">
+      <c r="H128" s="1">
         <v>218</v>
       </c>
-      <c r="J128" t="s">
+      <c r="J128" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="K128" t="s">
+      <c r="K128" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="L128" t="s">
-        <v>23</v>
-      </c>
-      <c r="M128" t="s">
+      <c r="L128" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M128" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="129" spans="1:13">
-      <c r="A129">
+      <c r="O128" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" s="1" customFormat="1">
+      <c r="A129" s="1">
         <v>128</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="1">
         <v>31.82</v>
       </c>
-      <c r="F129" s="9">
+      <c r="F129" s="10">
         <v>2158</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="1">
         <v>179</v>
       </c>
-      <c r="H129">
+      <c r="H129" s="1">
         <v>308</v>
       </c>
-      <c r="J129" t="s">
+      <c r="J129" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="K129" t="s">
+      <c r="K129" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="L129" t="s">
-        <v>23</v>
-      </c>
-      <c r="M129" t="s">
+      <c r="L129" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M129" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7562,11 +7586,12 @@
   <sortState ref="A2:N135">
     <sortCondition ref="F123"/>
   </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="31" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
